--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -453,13 +453,13 @@
         <v>3.167332196017696</v>
       </c>
       <c r="C3">
-        <v>0.8025921267905005</v>
+        <v>0.8025921267903868</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2234527626859233</v>
+        <v>0.2234527626859375</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0.7820650047589481</v>
       </c>
       <c r="H3">
-        <v>0.4515362737046189</v>
+        <v>0.4515362737046118</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4523446194938785</v>
+        <v>0.4523446194938856</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.86402184640923</v>
+        <v>2.864021846409173</v>
       </c>
       <c r="C4">
-        <v>0.7255353808170639</v>
+        <v>0.7255353808166944</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2015391927182506</v>
+        <v>0.2015391927182577</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0.728405149762942</v>
       </c>
       <c r="H4">
-        <v>0.4337975498451883</v>
+        <v>0.4337975498452025</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4075659286582578</v>
+        <v>0.4075659286582507</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.741151677593678</v>
+        <v>2.741151677593791</v>
       </c>
       <c r="C5">
-        <v>0.6943592883894496</v>
+        <v>0.6943592883894212</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1927297165370234</v>
+        <v>0.1927297165370518</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.707420531303292</v>
+        <v>0.7074205313032635</v>
       </c>
       <c r="H5">
-        <v>0.4271852674075376</v>
+        <v>0.4271852674075447</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3895169516914976</v>
+        <v>0.3895169516914763</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.72078903933226</v>
+        <v>2.720789039332317</v>
       </c>
       <c r="C6">
-        <v>0.6891947750392262</v>
+        <v>0.6891947750391978</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1912736371875567</v>
+        <v>0.1912736371875496</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.7039864179271405</v>
+        <v>0.7039864179271333</v>
       </c>
       <c r="H6">
         <v>0.4261227148718092</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3865309491926894</v>
+        <v>0.3865309491926681</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.862362012159053</v>
+        <v>2.86236201215894</v>
       </c>
       <c r="C7">
-        <v>0.7251140789441592</v>
+        <v>0.7251140789439035</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2014199222980153</v>
+        <v>0.2014199222980224</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0.7281187049313047</v>
       </c>
       <c r="H7">
-        <v>0.433705961433553</v>
+        <v>0.4337059614335459</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493930000544651</v>
+        <v>3.493930000544879</v>
       </c>
       <c r="C8">
-        <v>0.8857253979872723</v>
+        <v>0.8857253979871302</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2473042521087621</v>
+        <v>0.247304252108755</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5009069837368685</v>
+        <v>0.5009069837368756</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>4.768509058173038</v>
       </c>
       <c r="C9">
-        <v>1.211857892536727</v>
+        <v>1.211857892536784</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3427421139050466</v>
+        <v>0.3427421139050395</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.103781427610457</v>
+        <v>1.103781427610443</v>
       </c>
       <c r="H9">
-        <v>0.5742176807408583</v>
+        <v>0.5742176807408512</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6936697911963847</v>
+        <v>0.6936697911963989</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.739848156953599</v>
+        <v>5.739848156953656</v>
       </c>
       <c r="C10">
-        <v>1.462333573139631</v>
+        <v>1.462333573139745</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>0.4178355167788652</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>1.326551905451041</v>
+        <v>1.326551905451055</v>
       </c>
       <c r="H10">
-        <v>0.6692738732903152</v>
+        <v>0.6692738732903081</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8438835088502969</v>
+        <v>0.8438835088502685</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6.192761127243614</v>
       </c>
       <c r="C11">
-        <v>1.57972941378091</v>
+        <v>1.579729413781081</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4535206397420026</v>
+        <v>0.4535206397420666</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.366197576189563</v>
+        <v>6.366197576189393</v>
       </c>
       <c r="C12">
-        <v>1.624789433999922</v>
+        <v>1.624789433999695</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4672973044771638</v>
+        <v>0.4672973044771354</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.48022462684925</v>
+        <v>1.480224626849221</v>
       </c>
       <c r="H12">
-        <v>0.7379891367805911</v>
+        <v>0.737989136780584</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.328753175167378</v>
+        <v>6.328753175167265</v>
       </c>
       <c r="C13">
-        <v>1.61505613730003</v>
+        <v>1.615056137300087</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4643177498794699</v>
+        <v>0.4643177498794273</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>1.47082381125476</v>
+        <v>1.470823811254775</v>
       </c>
       <c r="H13">
-        <v>0.7337234320592287</v>
+        <v>0.7337234320592216</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9363145558499326</v>
+        <v>0.9363145558499184</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.206989062964965</v>
+        <v>6.206989062964851</v>
       </c>
       <c r="C14">
-        <v>1.58342372410317</v>
+        <v>1.583423724103</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4546484936637114</v>
+        <v>0.454648493663683</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.440440247616621</v>
+        <v>1.440440247616635</v>
       </c>
       <c r="H14">
-        <v>0.7199893969144711</v>
+        <v>0.7199893969144853</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.917119465207179</v>
+        <v>0.9171194652071648</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>6.132667145861092</v>
       </c>
       <c r="C15">
-        <v>1.564130233530307</v>
+        <v>1.564130233530648</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4487615475200784</v>
+        <v>0.4487615475201281</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.710499332790107</v>
+        <v>5.710499332790164</v>
       </c>
       <c r="C16">
-        <v>1.454739817643258</v>
+        <v>1.454739817643315</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.319540076505746</v>
+        <v>1.319540076505731</v>
       </c>
       <c r="H16">
-        <v>0.6661935134129919</v>
+        <v>0.6661935134129706</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8393038225769089</v>
+        <v>0.8393038225768805</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.454567512649703</v>
+        <v>5.454567512649646</v>
       </c>
       <c r="C17">
-        <v>1.388588392471149</v>
+        <v>1.388588392470922</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1.259123991674926</v>
       </c>
       <c r="H17">
-        <v>0.6398716121877683</v>
+        <v>0.6398716121877754</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7994752460605241</v>
+        <v>0.799475246060517</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.308378769268643</v>
+        <v>5.3083787692687</v>
       </c>
       <c r="C18">
-        <v>1.350857452242792</v>
+        <v>1.350857452242963</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3842346141054165</v>
+        <v>0.3842346141053952</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>1.225207292255689</v>
+        <v>1.225207292255661</v>
       </c>
       <c r="H18">
         <v>0.6252759327439961</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7768121128298304</v>
+        <v>0.7768121128298091</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>5.259046853827613</v>
       </c>
       <c r="C19">
-        <v>1.338133937083114</v>
+        <v>1.338133937083285</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3804176017208079</v>
+        <v>0.3804176017208007</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
         <v>1.21386034639697</v>
       </c>
       <c r="H19">
-        <v>0.6204235385381125</v>
+        <v>0.6204235385381196</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7691786734210595</v>
+        <v>0.7691786734210524</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>5.48170439953941</v>
       </c>
       <c r="C20">
-        <v>1.395596725078235</v>
+        <v>1.395596725078519</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3976858830099133</v>
+        <v>0.3976858830099061</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.265467624740452</v>
+        <v>1.265467624740467</v>
       </c>
       <c r="H20">
-        <v>0.6426163637809736</v>
+        <v>0.6426163637809665</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8036891549600185</v>
+        <v>0.8036891549600611</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.242698823539513</v>
+        <v>6.242698823539399</v>
       </c>
       <c r="C21">
-        <v>1.59269756522832</v>
+        <v>1.592697565228377</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4574810481054783</v>
+        <v>0.4574810481054286</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.449321195928064</v>
+        <v>1.449321195928079</v>
       </c>
       <c r="H21">
-        <v>0.7239953392007266</v>
+        <v>0.7239953392007479</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9227442892759967</v>
+        <v>0.9227442892760109</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>6.751490974482579</v>
       </c>
       <c r="C22">
-        <v>1.725103404694551</v>
+        <v>1.725103404694664</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4981226613053664</v>
+        <v>0.4981226613053522</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.578511893193976</v>
+        <v>1.578511893193948</v>
       </c>
       <c r="H22">
-        <v>0.7830263675206197</v>
+        <v>0.7830263675206126</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.478765203644286</v>
+        <v>6.4787652036444</v>
       </c>
       <c r="C23">
-        <v>1.654066848363584</v>
+        <v>1.654066848363811</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>0.4762718967281074</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.508647803009239</v>
+        <v>1.508647803009211</v>
       </c>
       <c r="H23">
-        <v>0.7509321198249239</v>
+        <v>0.7509321198249168</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.469432879265469</v>
+        <v>5.469432879265582</v>
       </c>
       <c r="C24">
-        <v>1.392427330164992</v>
+        <v>1.392427330165333</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.396731466176476</v>
+        <v>0.3967314661764902</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>1.262597139326047</v>
+        <v>1.262597139326019</v>
       </c>
       <c r="H24">
-        <v>0.6413737989914665</v>
+        <v>0.6413737989914807</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.418611172830708</v>
+        <v>4.418611172830765</v>
       </c>
       <c r="C25">
-        <v>1.122049437703794</v>
+        <v>1.122049437703566</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3161829851483304</v>
+        <v>0.3161829851483375</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.028400597165685</v>
+        <v>1.028400597165671</v>
       </c>
       <c r="H25">
-        <v>0.5435976087797201</v>
+        <v>0.5435976087797272</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6402523965597027</v>
+        <v>0.6402523965597382</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -453,13 +453,13 @@
         <v>3.167332196017696</v>
       </c>
       <c r="C3">
-        <v>0.8025921267903868</v>
+        <v>0.8025921267905005</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2234527626859375</v>
+        <v>0.2234527626859233</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
@@ -468,7 +468,7 @@
         <v>0.7820650047589481</v>
       </c>
       <c r="H3">
-        <v>0.4515362737046118</v>
+        <v>0.4515362737046189</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4523446194938856</v>
+        <v>0.4523446194938785</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.864021846409173</v>
+        <v>2.86402184640923</v>
       </c>
       <c r="C4">
-        <v>0.7255353808166944</v>
+        <v>0.7255353808170639</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2015391927182577</v>
+        <v>0.2015391927182506</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0.728405149762942</v>
       </c>
       <c r="H4">
-        <v>0.4337975498452025</v>
+        <v>0.4337975498451883</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4075659286582507</v>
+        <v>0.4075659286582578</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.741151677593791</v>
+        <v>2.741151677593678</v>
       </c>
       <c r="C5">
-        <v>0.6943592883894212</v>
+        <v>0.6943592883894496</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1927297165370518</v>
+        <v>0.1927297165370234</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7074205313032635</v>
+        <v>0.707420531303292</v>
       </c>
       <c r="H5">
-        <v>0.4271852674075447</v>
+        <v>0.4271852674075376</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3895169516914763</v>
+        <v>0.3895169516914976</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.720789039332317</v>
+        <v>2.72078903933226</v>
       </c>
       <c r="C6">
-        <v>0.6891947750391978</v>
+        <v>0.6891947750392262</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1912736371875496</v>
+        <v>0.1912736371875567</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7039864179271333</v>
+        <v>0.7039864179271405</v>
       </c>
       <c r="H6">
         <v>0.4261227148718092</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3865309491926681</v>
+        <v>0.3865309491926894</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.86236201215894</v>
+        <v>2.862362012159053</v>
       </c>
       <c r="C7">
-        <v>0.7251140789439035</v>
+        <v>0.7251140789441592</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2014199222980224</v>
+        <v>0.2014199222980153</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0.7281187049313047</v>
       </c>
       <c r="H7">
-        <v>0.4337059614335459</v>
+        <v>0.433705961433553</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493930000544879</v>
+        <v>3.493930000544651</v>
       </c>
       <c r="C8">
-        <v>0.8857253979871302</v>
+        <v>0.8857253979872723</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.247304252108755</v>
+        <v>0.2473042521087621</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5009069837368756</v>
+        <v>0.5009069837368685</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,22 +681,22 @@
         <v>4.768509058173038</v>
       </c>
       <c r="C9">
-        <v>1.211857892536784</v>
+        <v>1.211857892536727</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3427421139050395</v>
+        <v>0.3427421139050466</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.103781427610443</v>
+        <v>1.103781427610457</v>
       </c>
       <c r="H9">
-        <v>0.5742176807408512</v>
+        <v>0.5742176807408583</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6936697911963989</v>
+        <v>0.6936697911963847</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.739848156953656</v>
+        <v>5.739848156953599</v>
       </c>
       <c r="C10">
-        <v>1.462333573139745</v>
+        <v>1.462333573139631</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -728,13 +728,13 @@
         <v>0.4178355167788652</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.326551905451055</v>
+        <v>1.326551905451041</v>
       </c>
       <c r="H10">
-        <v>0.6692738732903081</v>
+        <v>0.6692738732903152</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8438835088502685</v>
+        <v>0.8438835088502969</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>6.192761127243614</v>
       </c>
       <c r="C11">
-        <v>1.579729413781081</v>
+        <v>1.57972941378091</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4535206397420666</v>
+        <v>0.4535206397420026</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.366197576189393</v>
+        <v>6.366197576189563</v>
       </c>
       <c r="C12">
-        <v>1.624789433999695</v>
+        <v>1.624789433999922</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4672973044771354</v>
+        <v>0.4672973044771638</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.480224626849221</v>
+        <v>1.48022462684925</v>
       </c>
       <c r="H12">
-        <v>0.737989136780584</v>
+        <v>0.7379891367805911</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.328753175167265</v>
+        <v>6.328753175167378</v>
       </c>
       <c r="C13">
-        <v>1.615056137300087</v>
+        <v>1.61505613730003</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4643177498794273</v>
+        <v>0.4643177498794699</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.470823811254775</v>
+        <v>1.47082381125476</v>
       </c>
       <c r="H13">
-        <v>0.7337234320592216</v>
+        <v>0.7337234320592287</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9363145558499184</v>
+        <v>0.9363145558499326</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.206989062964851</v>
+        <v>6.206989062964965</v>
       </c>
       <c r="C14">
-        <v>1.583423724103</v>
+        <v>1.58342372410317</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.454648493663683</v>
+        <v>0.4546484936637114</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.440440247616635</v>
+        <v>1.440440247616621</v>
       </c>
       <c r="H14">
-        <v>0.7199893969144853</v>
+        <v>0.7199893969144711</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9171194652071648</v>
+        <v>0.917119465207179</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>6.132667145861092</v>
       </c>
       <c r="C15">
-        <v>1.564130233530648</v>
+        <v>1.564130233530307</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4487615475201281</v>
+        <v>0.4487615475200784</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.710499332790164</v>
+        <v>5.710499332790107</v>
       </c>
       <c r="C16">
-        <v>1.454739817643315</v>
+        <v>1.454739817643258</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.319540076505731</v>
+        <v>1.319540076505746</v>
       </c>
       <c r="H16">
-        <v>0.6661935134129706</v>
+        <v>0.6661935134129919</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8393038225768805</v>
+        <v>0.8393038225769089</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.454567512649646</v>
+        <v>5.454567512649703</v>
       </c>
       <c r="C17">
-        <v>1.388588392470922</v>
+        <v>1.388588392471149</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>1.259123991674926</v>
       </c>
       <c r="H17">
-        <v>0.6398716121877754</v>
+        <v>0.6398716121877683</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.799475246060517</v>
+        <v>0.7994752460605241</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.3083787692687</v>
+        <v>5.308378769268643</v>
       </c>
       <c r="C18">
-        <v>1.350857452242963</v>
+        <v>1.350857452242792</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3842346141053952</v>
+        <v>0.3842346141054165</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.225207292255661</v>
+        <v>1.225207292255689</v>
       </c>
       <c r="H18">
         <v>0.6252759327439961</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7768121128298091</v>
+        <v>0.7768121128298304</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,22 +1061,22 @@
         <v>5.259046853827613</v>
       </c>
       <c r="C19">
-        <v>1.338133937083285</v>
+        <v>1.338133937083114</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3804176017208007</v>
+        <v>0.3804176017208079</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
         <v>1.21386034639697</v>
       </c>
       <c r="H19">
-        <v>0.6204235385381196</v>
+        <v>0.6204235385381125</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7691786734210524</v>
+        <v>0.7691786734210595</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>5.48170439953941</v>
       </c>
       <c r="C20">
-        <v>1.395596725078519</v>
+        <v>1.395596725078235</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3976858830099061</v>
+        <v>0.3976858830099133</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.265467624740467</v>
+        <v>1.265467624740452</v>
       </c>
       <c r="H20">
-        <v>0.6426163637809665</v>
+        <v>0.6426163637809736</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8036891549600611</v>
+        <v>0.8036891549600185</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.242698823539399</v>
+        <v>6.242698823539513</v>
       </c>
       <c r="C21">
-        <v>1.592697565228377</v>
+        <v>1.59269756522832</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4574810481054286</v>
+        <v>0.4574810481054783</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.449321195928079</v>
+        <v>1.449321195928064</v>
       </c>
       <c r="H21">
-        <v>0.7239953392007479</v>
+        <v>0.7239953392007266</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9227442892760109</v>
+        <v>0.9227442892759967</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>6.751490974482579</v>
       </c>
       <c r="C22">
-        <v>1.725103404694664</v>
+        <v>1.725103404694551</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4981226613053522</v>
+        <v>0.4981226613053664</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.578511893193948</v>
+        <v>1.578511893193976</v>
       </c>
       <c r="H22">
-        <v>0.7830263675206126</v>
+        <v>0.7830263675206197</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.4787652036444</v>
+        <v>6.478765203644286</v>
       </c>
       <c r="C23">
-        <v>1.654066848363811</v>
+        <v>1.654066848363584</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,13 +1222,13 @@
         <v>0.4762718967281074</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.508647803009211</v>
+        <v>1.508647803009239</v>
       </c>
       <c r="H23">
-        <v>0.7509321198249168</v>
+        <v>0.7509321198249239</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.469432879265582</v>
+        <v>5.469432879265469</v>
       </c>
       <c r="C24">
-        <v>1.392427330165333</v>
+        <v>1.392427330164992</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3967314661764902</v>
+        <v>0.396731466176476</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.262597139326019</v>
+        <v>1.262597139326047</v>
       </c>
       <c r="H24">
-        <v>0.6413737989914807</v>
+        <v>0.6413737989914665</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.418611172830765</v>
+        <v>4.418611172830708</v>
       </c>
       <c r="C25">
-        <v>1.122049437703566</v>
+        <v>1.122049437703794</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3161829851483375</v>
+        <v>0.3161829851483304</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.028400597165671</v>
+        <v>1.028400597165685</v>
       </c>
       <c r="H25">
-        <v>0.5435976087797272</v>
+        <v>0.5435976087797201</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6402523965597382</v>
+        <v>0.6402523965597027</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.667073922431598</v>
+        <v>3.66689070415066</v>
       </c>
       <c r="C2">
-        <v>0.9298675940407009</v>
+        <v>0.929261375069899</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2600525692080566</v>
+        <v>0.2600884266827919</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8758598294445363</v>
+        <v>0.2813421327495007</v>
       </c>
       <c r="H2">
-        <v>0.4848467977002713</v>
+        <v>0.5961494977628377</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4833621772299637</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.526793400207346</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5267080336438923</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.167332196017696</v>
+        <v>3.167224098607676</v>
       </c>
       <c r="C3">
-        <v>0.8025921267905005</v>
+        <v>0.8020861295358941</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2234527626859233</v>
+        <v>0.223485945812925</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7820650047589481</v>
+        <v>0.2469060990707064</v>
       </c>
       <c r="H3">
-        <v>0.4515362737046189</v>
+        <v>0.5371743817848653</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4502169524162554</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4523446194938785</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4522759455173571</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.86402184640923</v>
+        <v>2.863952437136845</v>
       </c>
       <c r="C4">
-        <v>0.7255353808170639</v>
+        <v>0.72508804814359</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2015391927182506</v>
+        <v>0.2015705130098482</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.728405149762942</v>
+        <v>0.2270336911376205</v>
       </c>
       <c r="H4">
-        <v>0.4337975498451883</v>
+        <v>0.5036135718192654</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4325759232535518</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4075659286582578</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.4075064567866349</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.741151677593678</v>
+        <v>2.741096433794894</v>
       </c>
       <c r="C5">
-        <v>0.6943592883894496</v>
+        <v>0.6939352573519955</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1927297165370234</v>
+        <v>0.1927602349086683</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.707420531303292</v>
+        <v>0.2192191282104332</v>
       </c>
       <c r="H5">
-        <v>0.4271852674075376</v>
+        <v>0.4905339592147584</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4260026412688873</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3895169516914976</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3894610104132283</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.72078903933226</v>
+        <v>2.720736058293483</v>
       </c>
       <c r="C6">
-        <v>0.6891947750392262</v>
+        <v>0.6887745798699143</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1912736371875567</v>
+        <v>0.191304020143626</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7039864179271405</v>
+        <v>0.2179376627508915</v>
       </c>
       <c r="H6">
-        <v>0.4261227148718092</v>
+        <v>0.4883962227807501</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4249465196468449</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3865309491926894</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3864755820873356</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.862362012159053</v>
+        <v>2.862292800074897</v>
       </c>
       <c r="C7">
-        <v>0.7251140789441592</v>
+        <v>0.7246670628279617</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2014199222980153</v>
+        <v>0.2014512319328077</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7281187049313047</v>
+        <v>0.2269271981855638</v>
       </c>
       <c r="H7">
-        <v>0.433705961433553</v>
+        <v>0.5034348470174663</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4324848639207843</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.407321754268736</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4072623308464856</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493930000544651</v>
+        <v>3.493774400955601</v>
       </c>
       <c r="C8">
-        <v>0.8857253979872723</v>
+        <v>0.8851544069856061</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2473042521087621</v>
+        <v>0.2473392417355882</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8426364327988978</v>
+        <v>0.2691818535483321</v>
       </c>
       <c r="H8">
-        <v>0.4727562415215161</v>
+        <v>0.5752207411658077</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4713294976481421</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5009069837368685</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.5008276187009244</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.768509058173038</v>
+        <v>4.768110732485525</v>
       </c>
       <c r="C9">
-        <v>1.211857892536727</v>
+        <v>1.211014801374859</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3427421139050466</v>
+        <v>0.3427818379294294</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.103781427610457</v>
+        <v>0.3639645957345721</v>
       </c>
       <c r="H9">
-        <v>0.5742176807408583</v>
+        <v>0.7405588338198896</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5723498835660621</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6936697911963847</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6935406209707864</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.739848156953599</v>
+        <v>5.73920260958397</v>
       </c>
       <c r="C10">
-        <v>1.462333573139631</v>
+        <v>1.461262515896408</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4178355167788652</v>
+        <v>0.4178758598187429</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.326551905451041</v>
+        <v>0.4437972299461279</v>
       </c>
       <c r="H10">
-        <v>0.6692738732903152</v>
+        <v>0.8826614264548454</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6670461973476236</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8438835088502969</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8437070732333893</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.192761127243614</v>
+        <v>6.191981159904458</v>
       </c>
       <c r="C11">
-        <v>1.57972941378091</v>
+        <v>1.578545593606464</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4535206397420026</v>
+        <v>0.4535602121169902</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.43690865561814</v>
+        <v>0.4831115587475665</v>
       </c>
       <c r="H11">
-        <v>0.7183983605239845</v>
+        <v>0.9532977859256277</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7159955265259299</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9148793966298427</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.914677900182653</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.366197576189563</v>
+        <v>6.365362800912351</v>
       </c>
       <c r="C12">
-        <v>1.624789433999922</v>
+        <v>1.623561296790228</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4672973044771638</v>
+        <v>0.4673363837554305</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.48022462684925</v>
+        <v>0.4985081789186268</v>
       </c>
       <c r="H12">
-        <v>0.7379891367805911</v>
+        <v>0.9810587731238201</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7355179413370863</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9422261199639337</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.9420144852460339</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.328753175167378</v>
+        <v>6.327930391226516</v>
       </c>
       <c r="C13">
-        <v>1.61505613730003</v>
+        <v>1.613837622159338</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4643177498794699</v>
+        <v>0.4643569452588565</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.47082381125476</v>
+        <v>0.4951682160086364</v>
       </c>
       <c r="H13">
-        <v>0.7337234320592287</v>
+        <v>0.9750322466774719</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.7312670569582878</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9363145558499326</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9361051359622365</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.206989062964965</v>
+        <v>6.206204669716044</v>
       </c>
       <c r="C14">
-        <v>1.58342372410317</v>
+        <v>1.582236292366588</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4546484936637114</v>
+        <v>0.4546880298428277</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.440440247616621</v>
+        <v>0.4843675512613004</v>
       </c>
       <c r="H14">
-        <v>0.7199893969144711</v>
+        <v>0.9555604542976255</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7175809820370489</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.917119465207179</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.9169171485733614</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.132667145861092</v>
+        <v>6.131905734271299</v>
       </c>
       <c r="C15">
-        <v>1.564130233530307</v>
+        <v>1.562961620357271</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4487615475200784</v>
+        <v>0.4488012645109904</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.422035659106328</v>
+        <v>0.4778206706647978</v>
       </c>
       <c r="H15">
-        <v>0.7117102475454189</v>
+        <v>0.9437701757118333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7093309320448071</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9054246762432854</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.9052266215100673</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.710499332790107</v>
+        <v>5.709862067923041</v>
       </c>
       <c r="C16">
-        <v>1.454739817643258</v>
+        <v>1.453675922104424</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4155377084972329</v>
+        <v>0.4155780767716308</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.319540076505746</v>
+        <v>0.4412946613672517</v>
       </c>
       <c r="H16">
-        <v>0.6661935134129919</v>
+        <v>0.878178109588859</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6639770228806938</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8393038225769089</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.8391289421919907</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.454567512649703</v>
+        <v>5.454000300705559</v>
       </c>
       <c r="C17">
-        <v>1.388588392471149</v>
+        <v>1.387586214266094</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.395575733301321</v>
+        <v>0.3956162002724426</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.259123991674926</v>
+        <v>0.4197066993903746</v>
       </c>
       <c r="H17">
-        <v>0.6398716121877683</v>
+        <v>0.8395743401463136</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6377518270184268</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7994752460605241</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7993135835268035</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.308378769268643</v>
+        <v>5.307849836405921</v>
       </c>
       <c r="C18">
-        <v>1.350857452242792</v>
+        <v>1.349889941609149</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3842346141054165</v>
+        <v>0.3842750424951547</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.225207292255689</v>
+        <v>0.4075667250703816</v>
       </c>
       <c r="H18">
-        <v>0.6252759327439961</v>
+        <v>0.8179242595528819</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6232107198348587</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7768121128298304</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7766577276532658</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.259046853827613</v>
+        <v>5.258530556016922</v>
       </c>
       <c r="C19">
-        <v>1.338133937083114</v>
+        <v>1.3371780301473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3804176017208079</v>
+        <v>0.3804580019740129</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.21386034639697</v>
+        <v>0.4035017095376503</v>
       </c>
       <c r="H19">
-        <v>0.6204235385381125</v>
+        <v>0.8106848201528152</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6183766330010414</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7691786734210595</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.7690267000200137</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.48170439953941</v>
+        <v>5.481129943640326</v>
       </c>
       <c r="C20">
-        <v>1.395596725078235</v>
+        <v>1.394588064985271</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3976858830099133</v>
+        <v>0.3977263496607151</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.265467624740452</v>
+        <v>0.4219755962656251</v>
       </c>
       <c r="H20">
-        <v>0.6426163637809736</v>
+        <v>0.8436254472651683</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.6404863953877467</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8036891549600185</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.8035261199055554</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.242698823539513</v>
+        <v>6.241903266827421</v>
       </c>
       <c r="C21">
-        <v>1.59269756522832</v>
+        <v>1.591501050239401</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4574810481054783</v>
+        <v>0.4575204901160035</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.449321195928064</v>
+        <v>0.4875254646328528</v>
       </c>
       <c r="H21">
-        <v>0.7239953392007266</v>
+        <v>0.961250986903508</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.7215728959164167</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9227442892759967</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9225399050946095</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.751490974482579</v>
+        <v>6.750527669856922</v>
       </c>
       <c r="C22">
-        <v>1.725103404694551</v>
+        <v>1.723774497427257</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4981226613053664</v>
+        <v>0.4981602259468048</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.578511893193976</v>
+        <v>0.533379773168619</v>
       </c>
       <c r="H22">
-        <v>0.7830263675206197</v>
+        <v>1.044116837232039</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.7804006809679862</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.003294237633241</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.003058960918139</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.478765203644286</v>
+        <v>6.477893849998111</v>
       </c>
       <c r="C23">
-        <v>1.654066848363584</v>
+        <v>1.652809603595813</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4762718967281074</v>
+        <v>0.4763105943935173</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.508647803009239</v>
+        <v>0.508601433100722</v>
       </c>
       <c r="H23">
-        <v>0.7509321198249239</v>
+        <v>0.999285047982184</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7484161655609114</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9600226600470307</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9598042796769732</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.469432879265469</v>
+        <v>5.468861704519156</v>
       </c>
       <c r="C24">
-        <v>1.392427330164992</v>
+        <v>1.391421603048173</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.396731466176476</v>
+        <v>0.396771933265498</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.262597139326047</v>
+        <v>0.4209489888804399</v>
       </c>
       <c r="H24">
-        <v>0.6413737989914665</v>
+        <v>0.8417922591636255</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6392484375979137</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8017833210506211</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.801620907505189</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.418611172830708</v>
+        <v>4.418288588281484</v>
       </c>
       <c r="C25">
-        <v>1.122049437703794</v>
+        <v>1.121284021392711</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3161829851483304</v>
+        <v>0.3162218123804621</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.028400597165685</v>
+        <v>0.336768676807182</v>
       </c>
       <c r="H25">
-        <v>0.5435976087797201</v>
+        <v>0.6926631458516397</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5418543581498412</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6402523965597027</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.6401382221360379</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.66689070415066</v>
+        <v>3.286913108514682</v>
       </c>
       <c r="C2">
-        <v>0.929261375069899</v>
+        <v>0.8392660817049773</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2600884266827919</v>
+        <v>0.2939049627154589</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>3.300945848141765</v>
       </c>
       <c r="G2">
-        <v>0.2813421327495007</v>
+        <v>0.0007889368648490157</v>
       </c>
       <c r="H2">
-        <v>0.5961494977628377</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4833621772299637</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1381936961178027</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9320352606371216</v>
       </c>
       <c r="L2">
-        <v>0.5267080336438923</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.976113558083</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.167224098607676</v>
+        <v>2.837661641394732</v>
       </c>
       <c r="C3">
-        <v>0.8020861295358941</v>
+        <v>0.721161241203589</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.223485945812925</v>
+        <v>0.2563124265116414</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.947670731572543</v>
       </c>
       <c r="G3">
-        <v>0.2469060990707064</v>
+        <v>0.0007984491660814053</v>
       </c>
       <c r="H3">
-        <v>0.5371743817848653</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4502169524162554</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.125222238338992</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8034572337777064</v>
       </c>
       <c r="L3">
-        <v>0.4522759455173571</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.013993464290984</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.863952437136845</v>
+        <v>2.56751053702294</v>
       </c>
       <c r="C4">
-        <v>0.72508804814359</v>
+        <v>0.6501487016447243</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2015705130098482</v>
+        <v>0.2335905927828392</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.738364226118819</v>
       </c>
       <c r="G4">
-        <v>0.2270336911376205</v>
+        <v>0.0008044196329762832</v>
       </c>
       <c r="H4">
-        <v>0.5036135718192654</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4325759232535518</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1176647929729313</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7261390935564265</v>
       </c>
       <c r="L4">
-        <v>0.4075064567866349</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.039365268462845</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.741096433794894</v>
+        <v>2.458651706229261</v>
       </c>
       <c r="C5">
-        <v>0.6939352573519955</v>
+        <v>0.6215317558071547</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1927602349086683</v>
+        <v>0.2244100647263281</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.654768383027545</v>
       </c>
       <c r="G5">
-        <v>0.2192191282104332</v>
+        <v>0.0008068876677043351</v>
       </c>
       <c r="H5">
-        <v>0.4905339592147584</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4260026412688873</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1146761212203486</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6949823107659583</v>
       </c>
       <c r="L5">
-        <v>0.3894610104132283</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.050200611713869</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.720736058293483</v>
+        <v>2.440644549966407</v>
       </c>
       <c r="C6">
-        <v>0.6887745798699143</v>
+        <v>0.6167977751125591</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.191304020143626</v>
+        <v>0.2228900821305047</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.640984049082491</v>
       </c>
       <c r="G6">
-        <v>0.2179376627508915</v>
+        <v>0.0008072996632191298</v>
       </c>
       <c r="H6">
-        <v>0.4883962227807501</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4249465196468449</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1141850439052945</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6898283403670149</v>
       </c>
       <c r="L6">
-        <v>0.3864755820873356</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.052028810479698</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.862292800074897</v>
+        <v>2.566037700598656</v>
       </c>
       <c r="C7">
-        <v>0.7246670628279617</v>
+        <v>0.6497615340921925</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2014512319328077</v>
+        <v>0.2334664766191352</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.737230215503502</v>
       </c>
       <c r="G7">
-        <v>0.2269271981855638</v>
+        <v>0.0008044527729610679</v>
       </c>
       <c r="H7">
-        <v>0.5034348470174663</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4324848639207843</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1176241321919704</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7257175546226975</v>
       </c>
       <c r="L7">
-        <v>0.4072623308464856</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.039509433013535</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.493774400955601</v>
+        <v>3.130702529703797</v>
       </c>
       <c r="C8">
-        <v>0.8851544069856061</v>
+        <v>0.7981951131479263</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2473392417355882</v>
+        <v>0.2808608585365064</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>3.17742223605066</v>
       </c>
       <c r="G8">
-        <v>0.2691818535483321</v>
+        <v>0.000792191244416733</v>
       </c>
       <c r="H8">
-        <v>0.5752207411658077</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4713294976481421</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1336294685815815</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8873261727558628</v>
       </c>
       <c r="L8">
-        <v>0.5008276187009244</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.9887135409031913</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.768110732485525</v>
+        <v>4.293435704130161</v>
       </c>
       <c r="C9">
-        <v>1.211014801374859</v>
+        <v>1.104131664160604</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3427818379294294</v>
+        <v>0.3772597413854513</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>4.111911893184157</v>
       </c>
       <c r="G9">
-        <v>0.3639645957345721</v>
+        <v>0.0007690570008021134</v>
       </c>
       <c r="H9">
-        <v>0.7405588338198896</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5723498835660621</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1688246521779178</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.22016862563477</v>
       </c>
       <c r="L9">
-        <v>0.6935406209707864</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.9076690027025336</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.73920260958397</v>
+        <v>5.19797390249056</v>
       </c>
       <c r="C10">
-        <v>1.461262515896408</v>
+        <v>1.34267549157903</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4178758598187429</v>
+        <v>0.4511577581965938</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>4.859452359064989</v>
       </c>
       <c r="G10">
-        <v>0.4437972299461279</v>
+        <v>0.0007524239939368186</v>
       </c>
       <c r="H10">
-        <v>0.8826614264548454</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6670461973476236</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1979367627866679</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.479241608661653</v>
       </c>
       <c r="L10">
-        <v>0.8437070732333893</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.8623281163991976</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.191981159904458</v>
+        <v>5.624806696666383</v>
       </c>
       <c r="C11">
-        <v>1.578545593606464</v>
+        <v>1.455457515884746</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4535602121169902</v>
+        <v>0.4857011401972287</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>5.217461372268332</v>
       </c>
       <c r="G11">
-        <v>0.4831115587475665</v>
+        <v>0.0007448852615802304</v>
       </c>
       <c r="H11">
-        <v>0.9532977859256277</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7159955265259299</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2121389411976082</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.601551069433043</v>
       </c>
       <c r="L11">
-        <v>0.914677900182653</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.8455638615336341</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.365362800912351</v>
+        <v>5.789085990209003</v>
       </c>
       <c r="C12">
-        <v>1.623561296790228</v>
+        <v>1.498906530548538</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4673363837554305</v>
+        <v>0.4989406884306575</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>5.356080310180829</v>
       </c>
       <c r="G12">
-        <v>0.4985081789186268</v>
+        <v>0.0007420294678928579</v>
       </c>
       <c r="H12">
-        <v>0.9810587731238201</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7355179413370863</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.217680184675757</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.64863667954188</v>
       </c>
       <c r="L12">
-        <v>0.9420144852460339</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.8398496796171742</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.327930391226516</v>
+        <v>5.753579997701479</v>
       </c>
       <c r="C13">
-        <v>1.613837622159338</v>
+        <v>1.489513792701928</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4643569452588565</v>
+        <v>0.4960818055428007</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>5.32608236230422</v>
       </c>
       <c r="G13">
-        <v>0.4951682160086364</v>
+        <v>0.000742644649266988</v>
       </c>
       <c r="H13">
-        <v>0.9750322466774719</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7312670569582878</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.216479071142615</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.638459432773089</v>
       </c>
       <c r="L13">
-        <v>0.9361051359622365</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.8410507299850849</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.206204669716044</v>
+        <v>5.638266227199949</v>
       </c>
       <c r="C14">
-        <v>1.582236292366588</v>
+        <v>1.459016436388254</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4546880298428277</v>
+        <v>0.4867870241884518</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>5.228801578512474</v>
       </c>
       <c r="G14">
-        <v>0.4843675512613004</v>
+        <v>0.0007446503663222786</v>
       </c>
       <c r="H14">
-        <v>0.9555604542976255</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7175809820370489</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2125913916890312</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.605408589749544</v>
       </c>
       <c r="L14">
-        <v>0.9169171485733614</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.845080545052042</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.131905734271299</v>
+        <v>5.567992201022548</v>
       </c>
       <c r="C15">
-        <v>1.562961620357271</v>
+        <v>1.440436561799231</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4488012645109904</v>
+        <v>0.4811151980891566</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>5.169626520062764</v>
       </c>
       <c r="G15">
-        <v>0.4778206706647978</v>
+        <v>0.0007458786275185099</v>
       </c>
       <c r="H15">
-        <v>0.9437701757118333</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7093309320448071</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2102321520726775</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.585268421669412</v>
       </c>
       <c r="L15">
-        <v>0.9052266215100673</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.8476340657683892</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.709862067923041</v>
+        <v>5.170424263378152</v>
       </c>
       <c r="C16">
-        <v>1.453675922104424</v>
+        <v>1.335401189587799</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4155780767716308</v>
+        <v>0.4489210001052086</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>4.836455072611841</v>
       </c>
       <c r="G16">
-        <v>0.4412946613672517</v>
+        <v>0.0007529168139946179</v>
       </c>
       <c r="H16">
-        <v>0.878178109588859</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6639770228806938</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1970299796954222</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.471348606162906</v>
       </c>
       <c r="L16">
-        <v>0.8391289421919907</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.8635078434565173</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.454000300705559</v>
+        <v>4.930752382650383</v>
       </c>
       <c r="C17">
-        <v>1.387586214266094</v>
+        <v>1.272142407185129</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3956162002724426</v>
+        <v>0.4294251429568376</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>4.636971940204717</v>
       </c>
       <c r="G17">
-        <v>0.4197066993903746</v>
+        <v>0.0007572382805567379</v>
       </c>
       <c r="H17">
-        <v>0.8395743401463136</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6377518270184268</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1891931832118416</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.402689037306772</v>
       </c>
       <c r="L17">
-        <v>0.7993135835268035</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.874286984894681</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.307849836405921</v>
+        <v>4.794314530930649</v>
       </c>
       <c r="C18">
-        <v>1.349889941609149</v>
+        <v>1.236150525907988</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3842750424951547</v>
+        <v>0.4182971353562124</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>4.523891918237609</v>
       </c>
       <c r="G18">
-        <v>0.4075667250703816</v>
+        <v>0.00075972682518477</v>
       </c>
       <c r="H18">
-        <v>0.8179242595528819</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6232107198348587</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1847741841025012</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.363608430346261</v>
       </c>
       <c r="L18">
-        <v>0.7766577276532658</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.8808449112267027</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.258530556016922</v>
+        <v>4.748349811080743</v>
       </c>
       <c r="C19">
-        <v>1.3371780301473</v>
+        <v>1.224028233257968</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3804580019740129</v>
+        <v>0.4145433560648542</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>4.485876582485588</v>
       </c>
       <c r="G19">
-        <v>0.4035017095376503</v>
+        <v>0.0007605700508398552</v>
       </c>
       <c r="H19">
-        <v>0.8106848201528152</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6183766330010414</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1832924867878205</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.35044332919496</v>
       </c>
       <c r="L19">
-        <v>0.7690267000200137</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.8831246152498125</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.481129943640326</v>
+        <v>4.956116452827416</v>
       </c>
       <c r="C20">
-        <v>1.394588064985271</v>
+        <v>1.278834894375336</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3977263496607151</v>
+        <v>0.4314914904633085</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>4.658032577920551</v>
       </c>
       <c r="G20">
-        <v>0.4219755962656251</v>
+        <v>0.000756777981371983</v>
       </c>
       <c r="H20">
-        <v>0.8436254472651683</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6404863953877467</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1900180923777555</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.409954606824982</v>
       </c>
       <c r="L20">
-        <v>0.8035261199055554</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.8731019408312761</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.241903266827421</v>
+        <v>5.672060974799365</v>
       </c>
       <c r="C21">
-        <v>1.591501050239401</v>
+        <v>1.467953017854938</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4575204901160035</v>
+        <v>0.4895125956330801</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>5.257288447277148</v>
       </c>
       <c r="G21">
-        <v>0.4875254646328528</v>
+        <v>0.0007440613109458995</v>
       </c>
       <c r="H21">
-        <v>0.961250986903508</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7215728959164167</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2137286452661158</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.615094399535351</v>
       </c>
       <c r="L21">
-        <v>0.9225399050946095</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.8438789869536407</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.750527669856922</v>
+        <v>6.155660432093896</v>
       </c>
       <c r="C22">
-        <v>1.723774497427257</v>
+        <v>1.595947040085321</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4981602259468048</v>
+        <v>0.528372871231241</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>5.666983521776586</v>
       </c>
       <c r="G22">
-        <v>0.533379773168619</v>
+        <v>0.0007357412112328702</v>
       </c>
       <c r="H22">
-        <v>1.044116837232039</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7804006809679862</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2301911146229685</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.753727742288007</v>
       </c>
       <c r="L22">
-        <v>1.003058960918139</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.8285228659927952</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.477893849998111</v>
+        <v>5.895953810059325</v>
       </c>
       <c r="C23">
-        <v>1.652809603595813</v>
+        <v>1.527184119408503</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4763105943935173</v>
+        <v>0.5075368469180148</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>5.446494543504912</v>
       </c>
       <c r="G23">
-        <v>0.508601433100722</v>
+        <v>0.0007401845149631843</v>
       </c>
       <c r="H23">
-        <v>0.999285047982184</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7484161655609114</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2213068276971768</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.679270541258731</v>
       </c>
       <c r="L23">
-        <v>0.9598042796769732</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.8363465473795202</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.468861704519156</v>
+        <v>4.944645175507958</v>
       </c>
       <c r="C24">
-        <v>1.391421603048173</v>
+        <v>1.275808057716574</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.396771933265498</v>
+        <v>0.4305570461274684</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>4.648506097160521</v>
       </c>
       <c r="G24">
-        <v>0.4209489888804399</v>
+        <v>0.0007569860695972537</v>
       </c>
       <c r="H24">
-        <v>0.8417922591636255</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6392484375979137</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1896448834294375</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.406668629136391</v>
       </c>
       <c r="L24">
-        <v>0.801620907505189</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.873636581060552</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.418288588281484</v>
+        <v>3.971385502095018</v>
       </c>
       <c r="C25">
-        <v>1.121284021392711</v>
+        <v>1.019330473269349</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3162218123804621</v>
+        <v>0.3507192031013417</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>3.849813151216921</v>
       </c>
       <c r="G25">
-        <v>0.336768676807182</v>
+        <v>0.0007752361798762503</v>
       </c>
       <c r="H25">
-        <v>0.6926631458516397</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5418543581498412</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.158807395366054</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.1279628579654</v>
       </c>
       <c r="L25">
-        <v>0.6401382221360379</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9273330903053676</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.286913108514682</v>
+        <v>0.9378072123928973</v>
       </c>
       <c r="C2">
-        <v>0.8392660817049773</v>
+        <v>0.1050744212338124</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2939049627154589</v>
+        <v>0.05734375402983005</v>
       </c>
       <c r="F2">
-        <v>3.300945848141765</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007889368648490157</v>
+        <v>0.0008233969105887961</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1381936961178027</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9320352606371216</v>
+        <v>0.7403974920833178</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1477402554270029</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2047274236168661</v>
       </c>
       <c r="N2">
-        <v>0.976113558083</v>
+        <v>1.035583601555608</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.752114222556813</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.837661641394732</v>
+        <v>0.8190607468834514</v>
       </c>
       <c r="C3">
-        <v>0.721161241203589</v>
+        <v>0.1045134546077264</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2563124265116414</v>
+        <v>0.05602871805929155</v>
       </c>
       <c r="F3">
-        <v>2.947670731572543</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007984491660814053</v>
+        <v>0.0008267469089913263</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.125222238338992</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8034572337777064</v>
+        <v>0.6435499262314863</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1342666786235256</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1803778003782206</v>
       </c>
       <c r="N3">
-        <v>1.013993464290984</v>
+        <v>1.081484473292543</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.762883425599924</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.56751053702294</v>
+        <v>0.7464985994141102</v>
       </c>
       <c r="C4">
-        <v>0.6501487016447243</v>
+        <v>0.1041938166349183</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2335905927828392</v>
+        <v>0.05529335846450678</v>
       </c>
       <c r="F4">
-        <v>2.738364226118819</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008044196329762832</v>
+        <v>0.0008288736273774355</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1176647929729313</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7261390935564265</v>
+        <v>0.5841784482674512</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1261379671432721</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1655423591351912</v>
       </c>
       <c r="N4">
-        <v>1.039365268462845</v>
+        <v>1.110861456519591</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.772712470688475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.458651706229261</v>
+        <v>0.717005603420489</v>
       </c>
       <c r="C5">
-        <v>0.6215317558071547</v>
+        <v>0.1040697251558456</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2244100647263281</v>
+        <v>0.05501127487085355</v>
       </c>
       <c r="F5">
-        <v>2.654768383027545</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008068876677043351</v>
+        <v>0.0008297581017388267</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1146761212203486</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6949823107659583</v>
+        <v>0.5599996694788274</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1228595779088266</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1595231603867262</v>
       </c>
       <c r="N5">
-        <v>1.050200611713869</v>
+        <v>1.12312727259551</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.777498392890422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.440644549966407</v>
+        <v>0.7121126335260328</v>
       </c>
       <c r="C6">
-        <v>0.6167977751125591</v>
+        <v>0.104049490145723</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2228900821305047</v>
+        <v>0.05496548152011727</v>
       </c>
       <c r="F6">
-        <v>2.640984049082491</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008072996632191298</v>
+        <v>0.0008299060519437939</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1141850439052945</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6898283403670149</v>
+        <v>0.5559855203116371</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1223172050930401</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1585251947636834</v>
       </c>
       <c r="N6">
-        <v>1.052028810479698</v>
+        <v>1.125181624628868</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.778339426938643</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.566037700598656</v>
+        <v>0.7461005502680678</v>
       </c>
       <c r="C7">
-        <v>0.6497615340921925</v>
+        <v>0.1041921182276973</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2334664766191352</v>
+        <v>0.05528948370143638</v>
       </c>
       <c r="F7">
-        <v>2.737230215503502</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008044527729610679</v>
+        <v>0.0008288854831461736</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1176241321919704</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7257175546226975</v>
+        <v>0.583852311833013</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1260936181847683</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1654610787586428</v>
       </c>
       <c r="N7">
-        <v>1.039509433013535</v>
+        <v>1.11102569269833</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.772773891617732</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.130702529703797</v>
+        <v>0.8967842326964046</v>
       </c>
       <c r="C8">
-        <v>0.7981951131479263</v>
+        <v>0.1048758074727516</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2808608585365064</v>
+        <v>0.05687503554783646</v>
       </c>
       <c r="F8">
-        <v>3.17742223605066</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000792191244416733</v>
+        <v>0.0008245376655382922</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1336294685815815</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8873261727558628</v>
+        <v>0.7069801778490756</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1430633483717259</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1963061040324021</v>
       </c>
       <c r="N8">
-        <v>0.9887135409031913</v>
+        <v>1.051158977681665</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.755142348503938</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.293435704130161</v>
+        <v>1.195579572085222</v>
       </c>
       <c r="C9">
-        <v>1.104131664160604</v>
+        <v>0.1064170027742293</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3772597413854513</v>
+        <v>0.06058201906751748</v>
       </c>
       <c r="F9">
-        <v>4.111911893184157</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007690570008021134</v>
+        <v>0.0008165528281663098</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1688246521779178</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.22016862563477</v>
+        <v>0.9495621650961539</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1775862055937054</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2578363945035989</v>
       </c>
       <c r="N9">
-        <v>0.9076690027025336</v>
+        <v>0.9434975706213136</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.747433823962865</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.19797390249056</v>
+        <v>1.417931781244334</v>
       </c>
       <c r="C10">
-        <v>1.34267549157903</v>
+        <v>0.1076774577444581</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4511577581965938</v>
+        <v>0.0637078016089454</v>
       </c>
       <c r="F10">
-        <v>4.859452359064989</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007524239939368186</v>
+        <v>0.000810997731526245</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1979367627866679</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.479241608661653</v>
+        <v>1.129063899032019</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2038604622964613</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3038710895388164</v>
       </c>
       <c r="N10">
-        <v>0.8623281163991976</v>
+        <v>0.8707182054525173</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.760117453580676</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.624806696666383</v>
+        <v>1.519892774378604</v>
       </c>
       <c r="C11">
-        <v>1.455457515884746</v>
+        <v>0.1082801883754883</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4857011401972287</v>
+        <v>0.06522600570182391</v>
       </c>
       <c r="F11">
-        <v>5.217461372268332</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007448852615802304</v>
+        <v>0.000808533866291925</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2121389411976082</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.601551069433043</v>
+        <v>1.211141764387889</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2160466211514631</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3250389699736402</v>
       </c>
       <c r="N11">
-        <v>0.8455638615336341</v>
+        <v>0.8390713704131274</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.77033556639131</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.789085990209003</v>
+        <v>1.558636277078335</v>
       </c>
       <c r="C12">
-        <v>1.498906530548538</v>
+        <v>0.1085127818926992</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4989406884306575</v>
+        <v>0.06581552845943861</v>
       </c>
       <c r="F12">
-        <v>5.356080310180829</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007420294678928579</v>
+        <v>0.0008076095778766779</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.217680184675757</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.64863667954188</v>
+        <v>1.242295357098072</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.220697943441408</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3330912293903978</v>
       </c>
       <c r="N12">
-        <v>0.8398496796171742</v>
+        <v>0.8273057951476259</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.774885916134167</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.753579997701479</v>
+        <v>1.550285979230608</v>
       </c>
       <c r="C13">
-        <v>1.489513792701928</v>
+        <v>0.1084624928744091</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4960818055428007</v>
+        <v>0.06568790160910964</v>
       </c>
       <c r="F13">
-        <v>5.32608236230422</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.000742644649266988</v>
+        <v>0.0008078082578543144</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.216479071142615</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.638459432773089</v>
+        <v>1.235582451810842</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2196945154548331</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3313553459590324</v>
       </c>
       <c r="N13">
-        <v>0.8410507299850849</v>
+        <v>0.8298298710652308</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.773874943940854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.638266227199949</v>
+        <v>1.523077460792308</v>
       </c>
       <c r="C14">
-        <v>1.459016436388254</v>
+        <v>0.1082992359428445</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4867870241884518</v>
+        <v>0.06527420869140954</v>
       </c>
       <c r="F14">
-        <v>5.228801578512474</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007446503663222786</v>
+        <v>0.0008084576517936295</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2125913916890312</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.605408589749544</v>
+        <v>1.21370326555521</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2164285347345754</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3257006807126075</v>
       </c>
       <c r="N14">
-        <v>0.845080545052042</v>
+        <v>0.8380989829843912</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.770696032520476</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.567992201022548</v>
+        <v>1.506429293630248</v>
       </c>
       <c r="C15">
-        <v>1.440436561799231</v>
+        <v>0.1081998073624248</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4811151980891566</v>
+        <v>0.06502273628666799</v>
       </c>
       <c r="F15">
-        <v>5.169626520062764</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007458786275185099</v>
+        <v>0.00080885654944096</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2102321520726775</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.585268421669412</v>
+        <v>1.200311438341515</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2144328992315678</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3222419003240873</v>
       </c>
       <c r="N15">
-        <v>0.8476340657683892</v>
+        <v>0.8431927500562146</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.768838811925974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.170424263378152</v>
+        <v>1.411286099140597</v>
       </c>
       <c r="C16">
-        <v>1.335401189587799</v>
+        <v>0.1076386694036486</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4489210001052086</v>
+        <v>0.06361058527360441</v>
       </c>
       <c r="F16">
-        <v>4.836455072611841</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007529168139946179</v>
+        <v>0.0008111599918531335</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1970299796954222</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.471348606162906</v>
+        <v>1.12370939635278</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2030690312619186</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3024926014581695</v>
       </c>
       <c r="N16">
-        <v>0.8635078434565173</v>
+        <v>0.872816496795167</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.759542658293242</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.930752382650383</v>
+        <v>1.353138050459307</v>
       </c>
       <c r="C17">
-        <v>1.272142407185129</v>
+        <v>0.107302035387967</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4294251429568376</v>
+        <v>0.06276946629912672</v>
       </c>
       <c r="F17">
-        <v>4.636971940204717</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007572382805567379</v>
+        <v>0.000812589009693662</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1891931832118416</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.402689037306772</v>
+        <v>1.076832689896833</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1961596817444615</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2904377285291915</v>
       </c>
       <c r="N17">
-        <v>0.874286984894681</v>
+        <v>0.8913696311165076</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.755007651399922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.794314530930649</v>
+        <v>1.319768204095766</v>
       </c>
       <c r="C18">
-        <v>1.236150525907988</v>
+        <v>0.1071111656011823</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4182971353562124</v>
+        <v>0.06229468974433772</v>
       </c>
       <c r="F18">
-        <v>4.523891918237609</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.00075972682518477</v>
+        <v>0.0008134169121450446</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1847741841025012</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.363608430346261</v>
+        <v>1.049909375449687</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1922074251647814</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2835251536680943</v>
       </c>
       <c r="N18">
-        <v>0.8808449112267027</v>
+        <v>0.9021778787495807</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.75281530159134</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.748349811080743</v>
+        <v>1.308482212841511</v>
       </c>
       <c r="C19">
-        <v>1.224028233257968</v>
+        <v>0.1070470094005742</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4145433560648542</v>
+        <v>0.06213546382626589</v>
       </c>
       <c r="F19">
-        <v>4.485876582485588</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007605700508398552</v>
+        <v>0.0008136982616263611</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1832924867878205</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.35044332919496</v>
+        <v>1.040799941766892</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1908729162582148</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2811881792574979</v>
       </c>
       <c r="N19">
-        <v>0.8831246152498125</v>
+        <v>0.9058606459898497</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.75214325311461</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.956116452827416</v>
+        <v>1.359320093785584</v>
       </c>
       <c r="C20">
-        <v>1.278834894375336</v>
+        <v>0.1073375847880129</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4314914904633085</v>
+        <v>0.06285806663073501</v>
       </c>
       <c r="F20">
-        <v>4.658032577920551</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.000756777981371983</v>
+        <v>0.0008124362730200336</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1900180923777555</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.409954606824982</v>
+        <v>1.081818683253886</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1968929141167592</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2917187824772327</v>
       </c>
       <c r="N20">
-        <v>0.8731019408312761</v>
+        <v>0.8893803831828713</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.755447058453285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.672060974799365</v>
+        <v>1.53106551443733</v>
       </c>
       <c r="C21">
-        <v>1.467953017854938</v>
+        <v>0.1083470692077242</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4895125956330801</v>
+        <v>0.06539531742404847</v>
       </c>
       <c r="F21">
-        <v>5.257288447277148</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007440613109458995</v>
+        <v>0.0008082666753734689</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2137286452661158</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.615094399535351</v>
+        <v>1.220127646973935</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2173868113881525</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3273605717461479</v>
       </c>
       <c r="N21">
-        <v>0.8438789869536407</v>
+        <v>0.8356641482998635</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.771610931914182</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.155660432093896</v>
+        <v>1.644095212492516</v>
       </c>
       <c r="C22">
-        <v>1.595947040085321</v>
+        <v>0.1090322671328963</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.528372871231241</v>
+        <v>0.06713911546489371</v>
       </c>
       <c r="F22">
-        <v>5.666983521776586</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007357412112328702</v>
+        <v>0.0008055922693461204</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2301911146229685</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.753727742288007</v>
+        <v>1.31094917475761</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2309961672721101</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3508689441809381</v>
       </c>
       <c r="N22">
-        <v>0.8285228659927952</v>
+        <v>0.8018346937497993</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.786165315506452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.895953810059325</v>
+        <v>1.583691691220082</v>
       </c>
       <c r="C23">
-        <v>1.527184119408503</v>
+        <v>0.108664188646209</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5075368469180148</v>
+        <v>0.0662003234313886</v>
       </c>
       <c r="F23">
-        <v>5.446494543504912</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007401845149631843</v>
+        <v>0.0008070151387229084</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2213068276971768</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.679270541258731</v>
+        <v>1.262432656618756</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2237118260936484</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3383011162779184</v>
       </c>
       <c r="N23">
-        <v>0.8363465473795202</v>
+        <v>0.8197703585129945</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.778017890486751</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.944645175507958</v>
+        <v>1.356525005581545</v>
       </c>
       <c r="C24">
-        <v>1.275808057716574</v>
+        <v>0.1073215046115337</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4305570461274684</v>
+        <v>0.06281798308722486</v>
       </c>
       <c r="F24">
-        <v>4.648506097160521</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007569860695972537</v>
+        <v>0.0008125053054542007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1896448834294375</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.406668629136391</v>
+        <v>1.07956443328996</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1965613576308982</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2911395624226785</v>
       </c>
       <c r="N24">
-        <v>0.873636581060552</v>
+        <v>0.8902792811109208</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.755247113340346</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.971385502095018</v>
+        <v>1.114312822018434</v>
       </c>
       <c r="C25">
-        <v>1.019330473269349</v>
+        <v>0.1059780298723858</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3507192031013417</v>
+        <v>0.05951140136685318</v>
       </c>
       <c r="F25">
-        <v>3.849813151216921</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007752361798762503</v>
+        <v>0.0008186568615951676</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.158807395366054</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.1279628579654</v>
+        <v>0.8837579684039838</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.16809845686263</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2410599628331092</v>
       </c>
       <c r="N25">
-        <v>0.9273330903053676</v>
+        <v>0.9715422079810008</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.746446688694846</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9378072123928973</v>
+        <v>0.6011661417734331</v>
       </c>
       <c r="C2">
-        <v>0.1050744212338124</v>
+        <v>0.1741463629819222</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05734375402983005</v>
+        <v>0.125274054624299</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008233969105887961</v>
+        <v>0.002482616468633616</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7403974920833178</v>
+        <v>0.2822869884435306</v>
       </c>
       <c r="L2">
-        <v>0.1477402554270029</v>
+        <v>0.1913268763976106</v>
       </c>
       <c r="M2">
-        <v>0.2047274236168661</v>
+        <v>0.1693692603555874</v>
       </c>
       <c r="N2">
-        <v>1.035583601555608</v>
+        <v>2.111026505566134</v>
       </c>
       <c r="O2">
-        <v>1.752114222556813</v>
+        <v>3.91108259546607</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8190607468834514</v>
+        <v>0.5691298085733649</v>
       </c>
       <c r="C3">
-        <v>0.1045134546077264</v>
+        <v>0.1740889422873835</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05602871805929155</v>
+        <v>0.1256336016998034</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008267469089913263</v>
+        <v>0.002484820388283449</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6435499262314863</v>
+        <v>0.253726555037602</v>
       </c>
       <c r="L3">
-        <v>0.1342666786235256</v>
+        <v>0.1887399731340338</v>
       </c>
       <c r="M3">
-        <v>0.1803778003782206</v>
+        <v>0.1632560345410958</v>
       </c>
       <c r="N3">
-        <v>1.081484473292543</v>
+        <v>2.130938582997276</v>
       </c>
       <c r="O3">
-        <v>1.762883425599924</v>
+        <v>3.939404973576814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7464985994141102</v>
+        <v>0.5496775708365362</v>
       </c>
       <c r="C4">
-        <v>0.1041938166349183</v>
+        <v>0.1740673321471427</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05529335846450678</v>
+        <v>0.1259028539400422</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008288736273774355</v>
+        <v>0.002486246453175626</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5841784482674512</v>
+        <v>0.2362229106123834</v>
       </c>
       <c r="L4">
-        <v>0.1261379671432721</v>
+        <v>0.1872412534128074</v>
       </c>
       <c r="M4">
-        <v>0.1655423591351912</v>
+        <v>0.1595745942517439</v>
       </c>
       <c r="N4">
-        <v>1.110861456519591</v>
+        <v>2.143799970077141</v>
       </c>
       <c r="O4">
-        <v>1.772712470688475</v>
+        <v>3.958588135631658</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.717005603420489</v>
+        <v>0.541806085311606</v>
       </c>
       <c r="C5">
-        <v>0.1040697251558456</v>
+        <v>0.1740619776840724</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05501127487085355</v>
+        <v>0.1260247931725402</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008297581017388267</v>
+        <v>0.002486845957662681</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5599996694788274</v>
+        <v>0.2290986494674172</v>
       </c>
       <c r="L5">
-        <v>0.1228595779088266</v>
+        <v>0.1866531285908124</v>
       </c>
       <c r="M5">
-        <v>0.1595231603867262</v>
+        <v>0.158092630725541</v>
       </c>
       <c r="N5">
-        <v>1.12312727259551</v>
+        <v>2.14920090930137</v>
       </c>
       <c r="O5">
-        <v>1.777498392890422</v>
+        <v>3.966856523878704</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7121126335260328</v>
+        <v>0.5405023981365389</v>
       </c>
       <c r="C6">
-        <v>0.104049490145723</v>
+        <v>0.1740612976630587</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05496548152011727</v>
+        <v>0.1260457796521823</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008299060519437939</v>
+        <v>0.002486946615939073</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5559855203116371</v>
+        <v>0.2279162042125904</v>
       </c>
       <c r="L6">
-        <v>0.1223172050930401</v>
+        <v>0.1865568389757328</v>
       </c>
       <c r="M6">
-        <v>0.1585251947636834</v>
+        <v>0.1578476578505423</v>
       </c>
       <c r="N6">
-        <v>1.125181624628868</v>
+        <v>2.150107385962827</v>
       </c>
       <c r="O6">
-        <v>1.778339426938643</v>
+        <v>3.968256734404278</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7461005502680678</v>
+        <v>0.5495711878938323</v>
       </c>
       <c r="C7">
-        <v>0.1041921182276973</v>
+        <v>0.1740672459326369</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05528948370143638</v>
+        <v>0.1259044489581296</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008288854831461736</v>
+        <v>0.002486254463742954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.583852311833013</v>
+        <v>0.236126794886502</v>
       </c>
       <c r="L7">
-        <v>0.1260936181847683</v>
+        <v>0.1872332300896602</v>
       </c>
       <c r="M7">
-        <v>0.1654610787586428</v>
+        <v>0.1595545339048137</v>
       </c>
       <c r="N7">
-        <v>1.11102569269833</v>
+        <v>2.143872161834913</v>
       </c>
       <c r="O7">
-        <v>1.772773891617732</v>
+        <v>3.95869781927648</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8967842326964046</v>
+        <v>0.5900750702529933</v>
       </c>
       <c r="C8">
-        <v>0.1048758074727516</v>
+        <v>0.1741237440969456</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05687503554783646</v>
+        <v>0.1253879767339612</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008245376655382922</v>
+        <v>0.00248336129233587</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7069801778490756</v>
+        <v>0.2724328352850307</v>
       </c>
       <c r="L8">
-        <v>0.1430633483717259</v>
+        <v>0.1904163477414826</v>
       </c>
       <c r="M8">
-        <v>0.1963061040324021</v>
+        <v>0.1672465255761857</v>
       </c>
       <c r="N8">
-        <v>1.051158977681665</v>
+        <v>2.117760379327644</v>
       </c>
       <c r="O8">
-        <v>1.755142348503938</v>
+        <v>3.920476112189149</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.195579572085222</v>
+        <v>0.671212767496371</v>
       </c>
       <c r="C9">
-        <v>0.1064170027742293</v>
+        <v>0.1743419611043322</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06058201906751748</v>
+        <v>0.1247589345773861</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008165528281663098</v>
+        <v>0.002478263396254747</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9495621650961539</v>
+        <v>0.343872227034808</v>
       </c>
       <c r="L9">
-        <v>0.1775862055937054</v>
+        <v>0.1973670864061745</v>
       </c>
       <c r="M9">
-        <v>0.2578363945035989</v>
+        <v>0.1828981642628804</v>
       </c>
       <c r="N9">
-        <v>0.9434975706213136</v>
+        <v>2.071592110719408</v>
       </c>
       <c r="O9">
-        <v>1.747433823962865</v>
+        <v>3.859742973842543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.417931781244334</v>
+        <v>0.7318442784064985</v>
       </c>
       <c r="C10">
-        <v>0.1076774577444581</v>
+        <v>0.17456668488974</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0637078016089454</v>
+        <v>0.1245295104141597</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.000810997731526245</v>
+        <v>0.002474865478927584</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.129063899032019</v>
+        <v>0.3964919494622734</v>
       </c>
       <c r="L10">
-        <v>0.2038604622964613</v>
+        <v>0.2029029776374927</v>
       </c>
       <c r="M10">
-        <v>0.3038710895388164</v>
+        <v>0.19473882590286</v>
       </c>
       <c r="N10">
-        <v>0.8707182054525173</v>
+        <v>2.040736478911785</v>
       </c>
       <c r="O10">
-        <v>1.760117453580676</v>
+        <v>3.823781544200585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.519892774378604</v>
+        <v>0.7596441069940454</v>
       </c>
       <c r="C11">
-        <v>0.1082801883754883</v>
+        <v>0.1746826757015683</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06522600570182391</v>
+        <v>0.1244754245238084</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.000808533866291925</v>
+        <v>0.002473394414087672</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.211141764387889</v>
+        <v>0.420456035855949</v>
       </c>
       <c r="L11">
-        <v>0.2160466211514631</v>
+        <v>0.2055140359681786</v>
       </c>
       <c r="M11">
-        <v>0.3250389699736402</v>
+        <v>0.2001986714289714</v>
       </c>
       <c r="N11">
-        <v>0.8390713704131274</v>
+        <v>2.027363449722238</v>
       </c>
       <c r="O11">
-        <v>1.77033556639131</v>
+        <v>3.809300196985276</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.558636277078335</v>
+        <v>0.7702020459667835</v>
       </c>
       <c r="C12">
-        <v>0.1085127818926992</v>
+        <v>0.1747285578909725</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06581552845943861</v>
+        <v>0.1244621514952691</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008076095778766779</v>
+        <v>0.002472848042208749</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.242295357098072</v>
+        <v>0.4295341453808419</v>
       </c>
       <c r="L12">
-        <v>0.220697943441408</v>
+        <v>0.2065160506116541</v>
       </c>
       <c r="M12">
-        <v>0.3330912293903978</v>
+        <v>0.2022766313711699</v>
       </c>
       <c r="N12">
-        <v>0.8273057951476259</v>
+        <v>2.022394755022832</v>
       </c>
       <c r="O12">
-        <v>1.774885916134167</v>
+        <v>3.804086349014199</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.550285979230608</v>
+        <v>0.7679268475567937</v>
       </c>
       <c r="C13">
-        <v>0.1084624928744091</v>
+        <v>0.1747185895311745</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06568790160910964</v>
+        <v>0.1244646898484447</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008078082578543144</v>
+        <v>0.002472965238591849</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.235582451810842</v>
+        <v>0.4275788669732492</v>
       </c>
       <c r="L13">
-        <v>0.2196945154548331</v>
+        <v>0.2062996601167129</v>
       </c>
       <c r="M13">
-        <v>0.3313553459590324</v>
+        <v>0.2018286434906997</v>
       </c>
       <c r="N13">
-        <v>0.8298298710652308</v>
+        <v>2.023460610321145</v>
       </c>
       <c r="O13">
-        <v>1.773874943940854</v>
+        <v>3.805197240871337</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523077460792308</v>
+        <v>0.7605121024170103</v>
       </c>
       <c r="C14">
-        <v>0.1082992359428445</v>
+        <v>0.1746864113108728</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06527420869140954</v>
+        <v>0.1244741882089251</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008084576517936295</v>
+        <v>0.002473349249634143</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.21370326555521</v>
+        <v>0.4212028313301346</v>
       </c>
       <c r="L14">
-        <v>0.2164285347345754</v>
+        <v>0.2055962069215411</v>
       </c>
       <c r="M14">
-        <v>0.3257006807126075</v>
+        <v>0.2003694180566526</v>
       </c>
       <c r="N14">
-        <v>0.8380989829843912</v>
+        <v>2.02695276067336</v>
       </c>
       <c r="O14">
-        <v>1.770696032520476</v>
+        <v>3.808865841382215</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.506429293630248</v>
+        <v>0.7559743422095266</v>
       </c>
       <c r="C15">
-        <v>0.1081998073624248</v>
+        <v>0.174666955743362</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06502273628666799</v>
+        <v>0.1244809442831425</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.00080885654944096</v>
+        <v>0.002473585858261261</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.200311438341515</v>
+        <v>0.4172977581872033</v>
       </c>
       <c r="L15">
-        <v>0.2144328992315678</v>
+        <v>0.2051670466202467</v>
       </c>
       <c r="M15">
-        <v>0.3222419003240873</v>
+        <v>0.1994769554246076</v>
       </c>
       <c r="N15">
-        <v>0.8431927500562146</v>
+        <v>2.0291042248567</v>
       </c>
       <c r="O15">
-        <v>1.768838811925974</v>
+        <v>3.811148114673131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.411286099140597</v>
+        <v>0.7300318315461709</v>
       </c>
       <c r="C16">
-        <v>0.1076386694036486</v>
+        <v>0.174559379840332</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06361058527360441</v>
+        <v>0.1245340549314413</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008111599918531335</v>
+        <v>0.002474963114812065</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.12370939635278</v>
+        <v>0.3949263455624248</v>
       </c>
       <c r="L16">
-        <v>0.2030690312619186</v>
+        <v>0.2027341989247162</v>
       </c>
       <c r="M16">
-        <v>0.3024926014581695</v>
+        <v>0.1943834794490371</v>
       </c>
       <c r="N16">
-        <v>0.872816496795167</v>
+        <v>2.041623785415656</v>
       </c>
       <c r="O16">
-        <v>1.759542658293242</v>
+        <v>3.824765710863147</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353138050459307</v>
+        <v>0.7141723875971024</v>
       </c>
       <c r="C17">
-        <v>0.107302035387967</v>
+        <v>0.1744968961643707</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06276946629912672</v>
+        <v>0.1245794988438043</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.000812589009693662</v>
+        <v>0.002475827106323801</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.076832689896833</v>
+        <v>0.3812088190616407</v>
       </c>
       <c r="L17">
-        <v>0.1961596817444615</v>
+        <v>0.2012654292558267</v>
       </c>
       <c r="M17">
-        <v>0.2904377285291915</v>
+        <v>0.1912775217938005</v>
       </c>
       <c r="N17">
-        <v>0.8913696311165076</v>
+        <v>2.049474024180082</v>
       </c>
       <c r="O17">
-        <v>1.755007651399922</v>
+        <v>3.833600524918722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.319768204095766</v>
+        <v>0.7050710357364096</v>
       </c>
       <c r="C18">
-        <v>0.1071111656011823</v>
+        <v>0.1744622538236129</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06229468974433772</v>
+        <v>0.1246103709239748</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008134169121450446</v>
+        <v>0.002476331081849296</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.049909375449687</v>
+        <v>0.3733214404412877</v>
       </c>
       <c r="L18">
-        <v>0.1922074251647814</v>
+        <v>0.2004293666577297</v>
       </c>
       <c r="M18">
-        <v>0.2835251536680943</v>
+        <v>0.1894979801362098</v>
       </c>
       <c r="N18">
-        <v>0.9021778787495807</v>
+        <v>2.054051712061773</v>
       </c>
       <c r="O18">
-        <v>1.75281530159134</v>
+        <v>3.83885881815317</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.308482212841511</v>
+        <v>0.7019930285575526</v>
       </c>
       <c r="C19">
-        <v>0.1070470094005742</v>
+        <v>0.1744507478306403</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06213546382626589</v>
+        <v>0.1246216374133553</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008136982616263611</v>
+        <v>0.002476502928443169</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.040799941766892</v>
+        <v>0.3706513669167748</v>
       </c>
       <c r="L19">
-        <v>0.1908729162582148</v>
+        <v>0.20014779271159</v>
       </c>
       <c r="M19">
-        <v>0.2811881792574979</v>
+        <v>0.1888966508996148</v>
       </c>
       <c r="N19">
-        <v>0.9058606459898497</v>
+        <v>2.05561236263302</v>
       </c>
       <c r="O19">
-        <v>1.75214325311461</v>
+        <v>3.840669544095562</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.359320093785584</v>
+        <v>0.7158585270529727</v>
       </c>
       <c r="C20">
-        <v>0.1073375847880129</v>
+        <v>0.174503413609294</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06285806663073501</v>
+        <v>0.124574171476791</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008124362730200336</v>
+        <v>0.002475734405695873</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.081818683253886</v>
+        <v>0.3826688095668942</v>
       </c>
       <c r="L20">
-        <v>0.1968929141167592</v>
+        <v>0.2014208788069709</v>
       </c>
       <c r="M20">
-        <v>0.2917187824772327</v>
+        <v>0.1916074407204107</v>
       </c>
       <c r="N20">
-        <v>0.8893803831828713</v>
+        <v>2.048631890811148</v>
       </c>
       <c r="O20">
-        <v>1.755447058453285</v>
+        <v>3.832641752378578</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.53106551443733</v>
+        <v>0.7626891634071455</v>
       </c>
       <c r="C21">
-        <v>0.1083470692077242</v>
+        <v>0.174695809826666</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06539531742404847</v>
+        <v>0.1244712028600183</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008082666753734689</v>
+        <v>0.002473236166433891</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.220127646973935</v>
+        <v>0.4230755381985887</v>
       </c>
       <c r="L21">
-        <v>0.2173868113881525</v>
+        <v>0.2058024688018492</v>
       </c>
       <c r="M21">
-        <v>0.3273605717461479</v>
+        <v>0.2007977457732082</v>
       </c>
       <c r="N21">
-        <v>0.8356641482998635</v>
+        <v>2.025924442895534</v>
       </c>
       <c r="O21">
-        <v>1.771610931914182</v>
+        <v>3.807780959501002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.644095212492516</v>
+        <v>0.7934746139481774</v>
       </c>
       <c r="C22">
-        <v>0.1090322671328963</v>
+        <v>0.1748329611097645</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06713911546489371</v>
+        <v>0.1244459111196008</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008055922693461204</v>
+        <v>0.002471665702508368</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.31094917475761</v>
+        <v>0.4495034468257302</v>
       </c>
       <c r="L22">
-        <v>0.2309961672721101</v>
+        <v>0.2087433664862033</v>
       </c>
       <c r="M22">
-        <v>0.3508689441809381</v>
+        <v>0.2068649038236785</v>
       </c>
       <c r="N22">
-        <v>0.8018346937497993</v>
+        <v>2.011639765984436</v>
       </c>
       <c r="O22">
-        <v>1.786165315506452</v>
+        <v>3.79310627853269</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.583691691220082</v>
+        <v>0.7770276787282455</v>
       </c>
       <c r="C23">
-        <v>0.108664188646209</v>
+        <v>0.1747587235491537</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0662003234313886</v>
+        <v>0.1244555737175439</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008070151387229084</v>
+        <v>0.002472498205894568</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.262432656618756</v>
+        <v>0.4353967199913029</v>
       </c>
       <c r="L23">
-        <v>0.2237118260936484</v>
+        <v>0.2071667079535331</v>
       </c>
       <c r="M23">
-        <v>0.3383011162779184</v>
+        <v>0.203621230562689</v>
       </c>
       <c r="N23">
-        <v>0.8197703585129945</v>
+        <v>2.019212899102673</v>
       </c>
       <c r="O23">
-        <v>1.778017890486751</v>
+        <v>3.800794504254725</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356525005581545</v>
+        <v>0.7150961721050351</v>
       </c>
       <c r="C24">
-        <v>0.1073215046115337</v>
+        <v>0.1745004630821754</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06281798308722486</v>
+        <v>0.124576565195472</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008125053054542007</v>
+        <v>0.002475776292918235</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.07956443328996</v>
+        <v>0.3820087509078007</v>
       </c>
       <c r="L24">
-        <v>0.1965613576308982</v>
+        <v>0.2013505740422374</v>
       </c>
       <c r="M24">
-        <v>0.2911395624226785</v>
+        <v>0.1914582653172587</v>
       </c>
       <c r="N24">
-        <v>0.8902792811109208</v>
+        <v>2.049012418450745</v>
       </c>
       <c r="O24">
-        <v>1.755247113340346</v>
+        <v>3.83307465573597</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.114312822018434</v>
+        <v>0.649082174276117</v>
       </c>
       <c r="C25">
-        <v>0.1059780298723858</v>
+        <v>0.1742715401467159</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05951140136685318</v>
+        <v>0.1248881489826328</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008186568615951676</v>
+        <v>0.002479581242531691</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8837579684039838</v>
+        <v>0.3245214917721455</v>
       </c>
       <c r="L25">
-        <v>0.16809845686263</v>
+        <v>0.1954111532822651</v>
       </c>
       <c r="M25">
-        <v>0.2410599628331092</v>
+        <v>0.1786036902453034</v>
       </c>
       <c r="N25">
-        <v>0.9715422079810008</v>
+        <v>2.083543294011156</v>
       </c>
       <c r="O25">
-        <v>1.746446688694846</v>
+        <v>3.87465157670502</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6011661417734331</v>
+        <v>0.9378072123929826</v>
       </c>
       <c r="C2">
-        <v>0.1741463629819222</v>
+        <v>0.1050744212340575</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.125274054624299</v>
+        <v>0.05734375402985847</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002482616468633616</v>
+        <v>0.0008233969105882479</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2822869884435306</v>
+        <v>0.7403974920832184</v>
       </c>
       <c r="L2">
-        <v>0.1913268763976106</v>
+        <v>0.1477402554270313</v>
       </c>
       <c r="M2">
-        <v>0.1693692603555874</v>
+        <v>0.2047274236168874</v>
       </c>
       <c r="N2">
-        <v>2.111026505566134</v>
+        <v>1.03558360155561</v>
       </c>
       <c r="O2">
-        <v>3.91108259546607</v>
+        <v>1.752114222556742</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5691298085733649</v>
+        <v>0.819060746883423</v>
       </c>
       <c r="C3">
-        <v>0.1740889422873835</v>
+        <v>0.104513454607492</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1256336016998034</v>
+        <v>0.05602871805932352</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002484820388283449</v>
+        <v>0.0008267469089918304</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.253726555037602</v>
+        <v>0.6435499262316284</v>
       </c>
       <c r="L3">
-        <v>0.1887399731340338</v>
+        <v>0.1342666786235611</v>
       </c>
       <c r="M3">
-        <v>0.1632560345410958</v>
+        <v>0.180377800378217</v>
       </c>
       <c r="N3">
-        <v>2.130938582997276</v>
+        <v>1.081484473292488</v>
       </c>
       <c r="O3">
-        <v>3.939404973576814</v>
+        <v>1.762883425599938</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5496775708365362</v>
+        <v>0.7464985994141102</v>
       </c>
       <c r="C4">
-        <v>0.1740673321471427</v>
+        <v>0.1041938166346803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1259028539400422</v>
+        <v>0.05529335846452454</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002486246453175626</v>
+        <v>0.0008288736273603666</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2362229106123834</v>
+        <v>0.5841784482673376</v>
       </c>
       <c r="L4">
-        <v>0.1872412534128074</v>
+        <v>0.1261379671432579</v>
       </c>
       <c r="M4">
-        <v>0.1595745942517439</v>
+        <v>0.1655423591351877</v>
       </c>
       <c r="N4">
-        <v>2.143799970077141</v>
+        <v>1.110861456519588</v>
       </c>
       <c r="O4">
-        <v>3.958588135631658</v>
+        <v>1.772712470688447</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.541806085311606</v>
+        <v>0.7170056034206027</v>
       </c>
       <c r="C5">
-        <v>0.1740619776840724</v>
+        <v>0.1040697251557638</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1260247931725402</v>
+        <v>0.05501127487083579</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002486845957662681</v>
+        <v>0.0008297581017564557</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2290986494674172</v>
+        <v>0.5599996694788416</v>
       </c>
       <c r="L5">
-        <v>0.1866531285908124</v>
+        <v>0.1228595779088693</v>
       </c>
       <c r="M5">
-        <v>0.158092630725541</v>
+        <v>0.1595231603867227</v>
       </c>
       <c r="N5">
-        <v>2.14920090930137</v>
+        <v>1.123127272595443</v>
       </c>
       <c r="O5">
-        <v>3.966856523878704</v>
+        <v>1.777498392890422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5405023981365389</v>
+        <v>0.7121126335260328</v>
       </c>
       <c r="C6">
-        <v>0.1740612976630587</v>
+        <v>0.1040494901458899</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1260457796521823</v>
+        <v>0.05496548152013148</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002486946615939073</v>
+        <v>0.0008299060518677992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2279162042125904</v>
+        <v>0.5559855203115802</v>
       </c>
       <c r="L6">
-        <v>0.1865568389757328</v>
+        <v>0.1223172050930472</v>
       </c>
       <c r="M6">
-        <v>0.1578476578505423</v>
+        <v>0.158525194763687</v>
       </c>
       <c r="N6">
-        <v>2.150107385962827</v>
+        <v>1.125181624628794</v>
       </c>
       <c r="O6">
-        <v>3.968256734404278</v>
+        <v>1.778339426938686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5495711878938323</v>
+        <v>0.7461005502679541</v>
       </c>
       <c r="C7">
-        <v>0.1740672459326369</v>
+        <v>0.1041921182279317</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1259044489581296</v>
+        <v>0.05528948370141862</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002486254463742954</v>
+        <v>0.0008288854832405271</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.236126794886502</v>
+        <v>0.5838523118331125</v>
       </c>
       <c r="L7">
-        <v>0.1872332300896602</v>
+        <v>0.1260936181847683</v>
       </c>
       <c r="M7">
-        <v>0.1595545339048137</v>
+        <v>0.1654610787586606</v>
       </c>
       <c r="N7">
-        <v>2.143872161834913</v>
+        <v>1.111025692698344</v>
       </c>
       <c r="O7">
-        <v>3.95869781927648</v>
+        <v>1.772773891617774</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5900750702529933</v>
+        <v>0.8967842326964615</v>
       </c>
       <c r="C8">
-        <v>0.1741237440969456</v>
+        <v>0.1048758074728298</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1253879767339612</v>
+        <v>0.05687503554785422</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.00248336129233587</v>
+        <v>0.0008245376655979959</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2724328352850307</v>
+        <v>0.7069801778491751</v>
       </c>
       <c r="L8">
-        <v>0.1904163477414826</v>
+        <v>0.1430633483717116</v>
       </c>
       <c r="M8">
-        <v>0.1672465255761857</v>
+        <v>0.196306104032395</v>
       </c>
       <c r="N8">
-        <v>2.117760379327644</v>
+        <v>1.051158977681658</v>
       </c>
       <c r="O8">
-        <v>3.920476112189149</v>
+        <v>1.755142348504023</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.671212767496371</v>
+        <v>1.195579572085251</v>
       </c>
       <c r="C9">
-        <v>0.1743419611043322</v>
+        <v>0.1064170027742293</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1247589345773861</v>
+        <v>0.0605820190675157</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002478263396254747</v>
+        <v>0.0008165528281455704</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.343872227034808</v>
+        <v>0.9495621650961255</v>
       </c>
       <c r="L9">
-        <v>0.1973670864061745</v>
+        <v>0.1775862055936486</v>
       </c>
       <c r="M9">
-        <v>0.1828981642628804</v>
+        <v>0.2578363945036131</v>
       </c>
       <c r="N9">
-        <v>2.071592110719408</v>
+        <v>0.9434975706212843</v>
       </c>
       <c r="O9">
-        <v>3.859742973842543</v>
+        <v>1.747433823962751</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7318442784064985</v>
+        <v>1.417931781244306</v>
       </c>
       <c r="C10">
-        <v>0.17456668488974</v>
+        <v>0.1076774577442166</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1245295104141597</v>
+        <v>0.06370780160897382</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002474865478927584</v>
+        <v>0.0008109977315838685</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3964919494622734</v>
+        <v>1.129063899031991</v>
       </c>
       <c r="L10">
-        <v>0.2029029776374927</v>
+        <v>0.203860462296376</v>
       </c>
       <c r="M10">
-        <v>0.19473882590286</v>
+        <v>0.3038710895388235</v>
       </c>
       <c r="N10">
-        <v>2.040736478911785</v>
+        <v>0.8707182054524987</v>
       </c>
       <c r="O10">
-        <v>3.823781544200585</v>
+        <v>1.760117453580619</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7596441069940454</v>
+        <v>1.519892774378718</v>
       </c>
       <c r="C11">
-        <v>0.1746826757015683</v>
+        <v>0.1082801883756304</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1244754245238084</v>
+        <v>0.06522600570183101</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002473394414087672</v>
+        <v>0.0008085338663510842</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.420456035855949</v>
+        <v>1.211141764388003</v>
       </c>
       <c r="L11">
-        <v>0.2055140359681786</v>
+        <v>0.2160466211514631</v>
       </c>
       <c r="M11">
-        <v>0.2001986714289714</v>
+        <v>0.3250389699736473</v>
       </c>
       <c r="N11">
-        <v>2.027363449722238</v>
+        <v>0.8390713704130635</v>
       </c>
       <c r="O11">
-        <v>3.809300196985276</v>
+        <v>1.77033556639131</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7702020459667835</v>
+        <v>1.558636277078335</v>
       </c>
       <c r="C12">
-        <v>0.1747285578909725</v>
+        <v>0.10851278189255</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1244621514952691</v>
+        <v>0.06581552845942085</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002472848042208749</v>
+        <v>0.000807609577818558</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4295341453808419</v>
+        <v>1.242295357098158</v>
       </c>
       <c r="L12">
-        <v>0.2065160506116541</v>
+        <v>0.2206979434414365</v>
       </c>
       <c r="M12">
-        <v>0.2022766313711699</v>
+        <v>0.3330912293903907</v>
       </c>
       <c r="N12">
-        <v>2.022394755022832</v>
+        <v>0.8273057951476757</v>
       </c>
       <c r="O12">
-        <v>3.804086349014199</v>
+        <v>1.774885916134195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7679268475567937</v>
+        <v>1.550285979230608</v>
       </c>
       <c r="C13">
-        <v>0.1747185895311745</v>
+        <v>0.1084624928744944</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1244646898484447</v>
+        <v>0.06568790160908833</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002472965238591849</v>
+        <v>0.0008078082579586439</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4275788669732492</v>
+        <v>1.235582451810927</v>
       </c>
       <c r="L13">
-        <v>0.2062996601167129</v>
+        <v>0.2196945154547905</v>
       </c>
       <c r="M13">
-        <v>0.2018286434906997</v>
+        <v>0.3313553459590324</v>
       </c>
       <c r="N13">
-        <v>2.023460610321145</v>
+        <v>0.8298298710652272</v>
       </c>
       <c r="O13">
-        <v>3.805197240871337</v>
+        <v>1.77387494394091</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7605121024170103</v>
+        <v>1.523077460792365</v>
       </c>
       <c r="C14">
-        <v>0.1746864113108728</v>
+        <v>0.1082992359428445</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1244741882089251</v>
+        <v>0.06527420869141309</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002473349249634143</v>
+        <v>0.0008084576517938012</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4212028313301346</v>
+        <v>1.21370326555521</v>
       </c>
       <c r="L14">
-        <v>0.2055962069215411</v>
+        <v>0.2164285347347317</v>
       </c>
       <c r="M14">
-        <v>0.2003694180566526</v>
+        <v>0.3257006807126075</v>
       </c>
       <c r="N14">
-        <v>2.02695276067336</v>
+        <v>0.8380989829844578</v>
       </c>
       <c r="O14">
-        <v>3.808865841382215</v>
+        <v>1.770696032520505</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7559743422095266</v>
+        <v>1.506429293630362</v>
       </c>
       <c r="C15">
-        <v>0.174666955743362</v>
+        <v>0.1081998073621051</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1244809442831425</v>
+        <v>0.06502273628666444</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002473585858261261</v>
+        <v>0.0008088565494183571</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4172977581872033</v>
+        <v>1.20031143834143</v>
       </c>
       <c r="L15">
-        <v>0.2051670466202467</v>
+        <v>0.2144328992315252</v>
       </c>
       <c r="M15">
-        <v>0.1994769554246076</v>
+        <v>0.3222419003240944</v>
       </c>
       <c r="N15">
-        <v>2.0291042248567</v>
+        <v>0.8431927500562653</v>
       </c>
       <c r="O15">
-        <v>3.811148114673131</v>
+        <v>1.768838811925946</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7300318315461709</v>
+        <v>1.411286099140597</v>
       </c>
       <c r="C16">
-        <v>0.174559379840332</v>
+        <v>0.1076386694036344</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1245340549314413</v>
+        <v>0.0636105852735831</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002474963114812065</v>
+        <v>0.0008111599918521704</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3949263455624248</v>
+        <v>1.123709396352723</v>
       </c>
       <c r="L16">
-        <v>0.2027341989247162</v>
+        <v>0.2030690312617907</v>
       </c>
       <c r="M16">
-        <v>0.1943834794490371</v>
+        <v>0.3024926014581624</v>
       </c>
       <c r="N16">
-        <v>2.041623785415656</v>
+        <v>0.872816496795159</v>
       </c>
       <c r="O16">
-        <v>3.824765710863147</v>
+        <v>1.759542658293327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7141723875971024</v>
+        <v>1.353138050459279</v>
       </c>
       <c r="C17">
-        <v>0.1744968961643707</v>
+        <v>0.107302035387832</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1245794988438043</v>
+        <v>0.06276946629912672</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002475827106323801</v>
+        <v>0.0008125890097161633</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3812088190616407</v>
+        <v>1.076832689896833</v>
       </c>
       <c r="L17">
-        <v>0.2012654292558267</v>
+        <v>0.1961596817444899</v>
       </c>
       <c r="M17">
-        <v>0.1912775217938005</v>
+        <v>0.2904377285291702</v>
       </c>
       <c r="N17">
-        <v>2.049474024180082</v>
+        <v>0.8913696311164587</v>
       </c>
       <c r="O17">
-        <v>3.833600524918722</v>
+        <v>1.755007651399893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7050710357364096</v>
+        <v>1.319768204095851</v>
       </c>
       <c r="C18">
-        <v>0.1744622538236129</v>
+        <v>0.1071111656011681</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1246103709239748</v>
+        <v>0.06229468974434837</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002476331081849296</v>
+        <v>0.0008134169120855623</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3733214404412877</v>
+        <v>1.049909375449573</v>
       </c>
       <c r="L18">
-        <v>0.2004293666577297</v>
+        <v>0.1922074251647814</v>
       </c>
       <c r="M18">
-        <v>0.1894979801362098</v>
+        <v>0.2835251536680943</v>
       </c>
       <c r="N18">
-        <v>2.054051712061773</v>
+        <v>0.9021778787496348</v>
       </c>
       <c r="O18">
-        <v>3.83885881815317</v>
+        <v>1.75281530159134</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7019930285575526</v>
+        <v>1.308482212841767</v>
       </c>
       <c r="C19">
-        <v>0.1744507478306403</v>
+        <v>0.1070470094007305</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1246216374133553</v>
+        <v>0.0621354638262801</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002476502928443169</v>
+        <v>0.0008136982615886201</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3706513669167748</v>
+        <v>1.040799941766721</v>
       </c>
       <c r="L19">
-        <v>0.20014779271159</v>
+        <v>0.1908729162582574</v>
       </c>
       <c r="M19">
-        <v>0.1888966508996148</v>
+        <v>0.2811881792575122</v>
       </c>
       <c r="N19">
-        <v>2.05561236263302</v>
+        <v>0.9058606459898231</v>
       </c>
       <c r="O19">
-        <v>3.840669544095562</v>
+        <v>1.752143253114525</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7158585270529727</v>
+        <v>1.359320093785612</v>
       </c>
       <c r="C20">
-        <v>0.174503413609294</v>
+        <v>0.10733758478802</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.124574171476791</v>
+        <v>0.06285806663073501</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002475734405695873</v>
+        <v>0.0008124362730794088</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3826688095668942</v>
+        <v>1.081818683253715</v>
       </c>
       <c r="L20">
-        <v>0.2014208788069709</v>
+        <v>0.196892914116745</v>
       </c>
       <c r="M20">
-        <v>0.1916074407204107</v>
+        <v>0.2917187824772327</v>
       </c>
       <c r="N20">
-        <v>2.048631890811148</v>
+        <v>0.8893803831828677</v>
       </c>
       <c r="O20">
-        <v>3.832641752378578</v>
+        <v>1.7554470584532</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7626891634071455</v>
+        <v>1.531065514437103</v>
       </c>
       <c r="C21">
-        <v>0.174695809826666</v>
+        <v>0.108347069207575</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1244712028600183</v>
+        <v>0.06539531742403426</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002473236166433891</v>
+        <v>0.0008082666753729138</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4230755381985887</v>
+        <v>1.220127646974021</v>
       </c>
       <c r="L21">
-        <v>0.2058024688018492</v>
+        <v>0.2173868113881667</v>
       </c>
       <c r="M21">
-        <v>0.2007977457732082</v>
+        <v>0.3273605717461479</v>
       </c>
       <c r="N21">
-        <v>2.025924442895534</v>
+        <v>0.8356641482998608</v>
       </c>
       <c r="O21">
-        <v>3.807780959501002</v>
+        <v>1.771610931914182</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7934746139481774</v>
+        <v>1.644095212492601</v>
       </c>
       <c r="C22">
-        <v>0.1748329611097645</v>
+        <v>0.1090322671329886</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1244459111196008</v>
+        <v>0.06713911546488305</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002471665702508368</v>
+        <v>0.0008055922692881134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4495034468257302</v>
+        <v>1.310949174757724</v>
       </c>
       <c r="L22">
-        <v>0.2087433664862033</v>
+        <v>0.2309961672721101</v>
       </c>
       <c r="M22">
-        <v>0.2068649038236785</v>
+        <v>0.350868944180931</v>
       </c>
       <c r="N22">
-        <v>2.011639765984436</v>
+        <v>0.8018346937497398</v>
       </c>
       <c r="O22">
-        <v>3.79310627853269</v>
+        <v>1.786165315506423</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7770276787282455</v>
+        <v>1.583691691220167</v>
       </c>
       <c r="C23">
-        <v>0.1747587235491537</v>
+        <v>0.1086641886462019</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1244555737175439</v>
+        <v>0.06620032343141702</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002472498205894568</v>
+        <v>0.0008070151386639596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4353967199913029</v>
+        <v>1.262432656618756</v>
       </c>
       <c r="L23">
-        <v>0.2071667079535331</v>
+        <v>0.2237118260937478</v>
       </c>
       <c r="M23">
-        <v>0.203621230562689</v>
+        <v>0.3383011162779326</v>
       </c>
       <c r="N23">
-        <v>2.019212899102673</v>
+        <v>0.819770358512919</v>
       </c>
       <c r="O23">
-        <v>3.800794504254725</v>
+        <v>1.778017890486694</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7150961721050351</v>
+        <v>1.356525005581744</v>
       </c>
       <c r="C24">
-        <v>0.1745004630821754</v>
+        <v>0.1073215046113063</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.124576565195472</v>
+        <v>0.06281798308722486</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002475776292918235</v>
+        <v>0.0008125053055563382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3820087509078007</v>
+        <v>1.079564433290216</v>
       </c>
       <c r="L24">
-        <v>0.2013505740422374</v>
+        <v>0.1965613576309408</v>
       </c>
       <c r="M24">
-        <v>0.1914582653172587</v>
+        <v>0.2911395624226643</v>
       </c>
       <c r="N24">
-        <v>2.049012418450745</v>
+        <v>0.890279281110903</v>
       </c>
       <c r="O24">
-        <v>3.83307465573597</v>
+        <v>1.755247113340374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.649082174276117</v>
+        <v>1.11431282201832</v>
       </c>
       <c r="C25">
-        <v>0.1742715401467159</v>
+        <v>0.1059780298726274</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1248881489826328</v>
+        <v>0.0595114013668514</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002479581242531691</v>
+        <v>0.0008186568617121361</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3245214917721455</v>
+        <v>0.8837579684038701</v>
       </c>
       <c r="L25">
-        <v>0.1954111532822651</v>
+        <v>0.1680984568626442</v>
       </c>
       <c r="M25">
-        <v>0.1786036902453034</v>
+        <v>0.2410599628331092</v>
       </c>
       <c r="N25">
-        <v>2.083543294011156</v>
+        <v>0.9715422079809972</v>
       </c>
       <c r="O25">
-        <v>3.87465157670502</v>
+        <v>1.746446688694817</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9378072123929826</v>
+        <v>0.9461502429479651</v>
       </c>
       <c r="C2">
-        <v>0.1050744212340575</v>
+        <v>0.1997987924504798</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05734375402985847</v>
+        <v>0.8605562300917029</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.243247837120506</v>
       </c>
       <c r="G2">
-        <v>0.0008233969105882479</v>
+        <v>0.5085687291335717</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.302527643216479E-06</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0008771523916166757</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4078307082207004</v>
       </c>
       <c r="K2">
-        <v>0.7403974920832184</v>
+        <v>0.3576773786041549</v>
       </c>
       <c r="L2">
-        <v>0.1477402554270313</v>
+        <v>0.05883696162396745</v>
       </c>
       <c r="M2">
-        <v>0.2047274236168874</v>
+        <v>1.092292642881858</v>
       </c>
       <c r="N2">
-        <v>1.03558360155561</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.752114222556742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8459605806720356</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.819060746883423</v>
+        <v>0.8230299890427375</v>
       </c>
       <c r="C3">
-        <v>0.104513454607492</v>
+        <v>0.1736514457240474</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05602871805932352</v>
+        <v>0.7532509045435205</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>2.030773098136038</v>
       </c>
       <c r="G3">
-        <v>0.0008267469089918304</v>
+        <v>0.4890032918928853</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002599189211380803</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001553005303978061</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4036411430859204</v>
       </c>
       <c r="K3">
-        <v>0.6435499262316284</v>
+        <v>0.3565108086008095</v>
       </c>
       <c r="L3">
-        <v>0.1342666786235611</v>
+        <v>0.05387086453634993</v>
       </c>
       <c r="M3">
-        <v>0.180377800378217</v>
+        <v>0.949640523330487</v>
       </c>
       <c r="N3">
-        <v>1.081484473292488</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.762883425599938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8785057297139467</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7464985994141102</v>
+        <v>0.7471239940633723</v>
       </c>
       <c r="C4">
-        <v>0.1041938166346803</v>
+        <v>0.1578193488011266</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05529335846452454</v>
+        <v>0.687585836335785</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.901062374243722</v>
       </c>
       <c r="G4">
-        <v>0.0008288736273603666</v>
+        <v>0.4774243245454031</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0007475631322424459</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002180488924833135</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4013580310353078</v>
       </c>
       <c r="K4">
-        <v>0.5841784482673376</v>
+        <v>0.3560113842378243</v>
       </c>
       <c r="L4">
-        <v>0.1261379671432579</v>
+        <v>0.05079822437768655</v>
       </c>
       <c r="M4">
-        <v>0.1655423591351877</v>
+        <v>0.8620633994271145</v>
       </c>
       <c r="N4">
-        <v>1.110861456519588</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.772712470688447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8991226198509557</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7170056034206027</v>
+        <v>0.7153062101282899</v>
       </c>
       <c r="C5">
-        <v>0.1040697251557638</v>
+        <v>0.1517574160762791</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05501127487083579</v>
+        <v>0.6612993662219964</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.847676059633415</v>
       </c>
       <c r="G5">
-        <v>0.0008297581017564557</v>
+        <v>0.4721576596857062</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001025484704695545</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002560991133065738</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4001608754678045</v>
       </c>
       <c r="K5">
-        <v>0.5599996694788416</v>
+        <v>0.3554209948230742</v>
       </c>
       <c r="L5">
-        <v>0.1228595779088693</v>
+        <v>0.04949505458670167</v>
       </c>
       <c r="M5">
-        <v>0.1595231603867227</v>
+        <v>0.8261518269052033</v>
       </c>
       <c r="N5">
-        <v>1.123127272595443</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.777498392890422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9075784507996545</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7121126335260328</v>
+        <v>0.7090343867683373</v>
       </c>
       <c r="C6">
-        <v>0.1040494901458899</v>
+        <v>0.1511698725783646</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05496548152013148</v>
+        <v>0.6574598361654438</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.837974642176249</v>
       </c>
       <c r="G6">
-        <v>0.0008299060518677992</v>
+        <v>0.4704951253836356</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001077082951982611</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00272500462477776</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3995553429108512</v>
       </c>
       <c r="K6">
-        <v>0.5559855203115802</v>
+        <v>0.3547904318788078</v>
       </c>
       <c r="L6">
-        <v>0.1223172050930472</v>
+        <v>0.04922447769698302</v>
       </c>
       <c r="M6">
-        <v>0.158525194763687</v>
+        <v>0.8199229062765028</v>
       </c>
       <c r="N6">
-        <v>1.125181624628794</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.778339426938686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9088715585140514</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7461005502679541</v>
+        <v>0.743999247988711</v>
       </c>
       <c r="C7">
-        <v>0.1041921182279317</v>
+        <v>0.1588760385288595</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05528948370141862</v>
+        <v>0.6886619204743312</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.89802966618096</v>
       </c>
       <c r="G7">
-        <v>0.0008288854832405271</v>
+        <v>0.4751841339891669</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0007528161939311939</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002436348645425745</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.400220768864159</v>
       </c>
       <c r="K7">
-        <v>0.5838523118331125</v>
+        <v>0.3545412680655886</v>
       </c>
       <c r="L7">
-        <v>0.1260936181847683</v>
+        <v>0.05063353604938747</v>
       </c>
       <c r="M7">
-        <v>0.1654610787586606</v>
+        <v>0.8608517373929203</v>
       </c>
       <c r="N7">
-        <v>1.111025692698344</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.772773891617774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8989237815090778</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8967842326964615</v>
+        <v>0.9001537355106564</v>
       </c>
       <c r="C8">
-        <v>0.1048758074728298</v>
+        <v>0.1922526740081025</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05687503554785422</v>
+        <v>0.8254119896075309</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>2.166746641274699</v>
       </c>
       <c r="G8">
-        <v>0.0008245376655979959</v>
+        <v>0.4988608066394278</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.049017656435836E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00136287976495808</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4048481604787924</v>
       </c>
       <c r="K8">
-        <v>0.7069801778491751</v>
+        <v>0.3553025898798374</v>
       </c>
       <c r="L8">
-        <v>0.1430633483717116</v>
+        <v>0.056932453820842</v>
       </c>
       <c r="M8">
-        <v>0.196306104032395</v>
+        <v>1.042121619860467</v>
       </c>
       <c r="N8">
-        <v>1.051158977681658</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.755142348504023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8567107923223514</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.195579572085251</v>
+        <v>1.209011179922726</v>
       </c>
       <c r="C9">
-        <v>0.1064170027742293</v>
+        <v>0.2576721026879198</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0605820190675157</v>
+        <v>1.093217650795069</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>2.705036777324153</v>
       </c>
       <c r="G9">
-        <v>0.0008165528281455704</v>
+        <v>0.552983212549961</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001402231305319024</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006961342828946115</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4183717066119925</v>
       </c>
       <c r="K9">
-        <v>0.9495621650961255</v>
+        <v>0.3612485185701289</v>
       </c>
       <c r="L9">
-        <v>0.1775862055936486</v>
+        <v>0.06942163749245722</v>
       </c>
       <c r="M9">
-        <v>0.2578363945036131</v>
+        <v>1.3994861232716</v>
       </c>
       <c r="N9">
-        <v>0.9434975706212843</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.747433823962751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7796018195473593</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.417931781244306</v>
+        <v>1.429429305603122</v>
       </c>
       <c r="C10">
-        <v>0.1076774577442166</v>
+        <v>0.3055088801447425</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06370780160897382</v>
+        <v>1.251623842464923</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>3.046480695043613</v>
       </c>
       <c r="G10">
-        <v>0.0008109977315838685</v>
+        <v>0.5877242630303812</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004342986255708059</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001596251047475405</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4261345832075278</v>
       </c>
       <c r="K10">
-        <v>1.129063899031991</v>
+        <v>0.363107161283164</v>
       </c>
       <c r="L10">
-        <v>0.203860462296376</v>
+        <v>0.07499829097140776</v>
       </c>
       <c r="M10">
-        <v>0.3038710895388235</v>
+        <v>1.655846503715253</v>
       </c>
       <c r="N10">
-        <v>0.8707182054524987</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.760117453580619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7266579541451783</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.519892774378718</v>
+        <v>1.489173555376794</v>
       </c>
       <c r="C11">
-        <v>0.1082801883756304</v>
+        <v>0.3084570580657555</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06522600570183101</v>
+        <v>0.9907306278719119</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.7016829113673</v>
       </c>
       <c r="G11">
-        <v>0.0008085338663510842</v>
+        <v>0.5425260555792164</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0224181868438933</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00245840402939379</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3995478521695901</v>
       </c>
       <c r="K11">
-        <v>1.211141764388003</v>
+        <v>0.3355557292870444</v>
       </c>
       <c r="L11">
-        <v>0.2160466211514631</v>
+        <v>0.05473135619178926</v>
       </c>
       <c r="M11">
-        <v>0.3250389699736473</v>
+        <v>1.711117320079836</v>
       </c>
       <c r="N11">
-        <v>0.8390713704130635</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.77033556639131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7085948680536305</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.558636277078335</v>
+        <v>1.496889950639485</v>
       </c>
       <c r="C12">
-        <v>0.10851278189255</v>
+        <v>0.2988974924365948</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06581552845942085</v>
+        <v>0.7638679786144991</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.361413963537004</v>
       </c>
       <c r="G12">
-        <v>0.000807609577818558</v>
+        <v>0.501172441273809</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06038200397244253</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002518105416151606</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3773962262360016</v>
       </c>
       <c r="K12">
-        <v>1.242295357098158</v>
+        <v>0.3146305231237108</v>
       </c>
       <c r="L12">
-        <v>0.2206979434414365</v>
+        <v>0.04747027903317269</v>
       </c>
       <c r="M12">
-        <v>0.3330912293903907</v>
+        <v>1.70385213178335</v>
       </c>
       <c r="N12">
-        <v>0.8273057951476757</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.774885916134195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7076022903238979</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.550285979230608</v>
+        <v>1.460644979000932</v>
       </c>
       <c r="C13">
-        <v>0.1084624928744944</v>
+        <v>0.28105237912348</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06568790160908833</v>
+        <v>0.5535799580193412</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.003292848461442</v>
       </c>
       <c r="G13">
-        <v>0.0008078082579586439</v>
+        <v>0.4569829976469606</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1152519671459658</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002286244118269387</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3555879171460106</v>
       </c>
       <c r="K13">
-        <v>1.235582451810927</v>
+        <v>0.2952674337503396</v>
       </c>
       <c r="L13">
-        <v>0.2196945154547905</v>
+        <v>0.04943910480287528</v>
       </c>
       <c r="M13">
-        <v>0.3313553459590324</v>
+        <v>1.646934712432341</v>
       </c>
       <c r="N13">
-        <v>0.8298298710652272</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.77387494394091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7187108598402538</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.523077460792365</v>
+        <v>1.41470444920833</v>
       </c>
       <c r="C14">
-        <v>0.1082992359428445</v>
+        <v>0.2652944441242511</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06527420869141309</v>
+        <v>0.4193124152281982</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.749027799364768</v>
       </c>
       <c r="G14">
-        <v>0.0008084576517938012</v>
+        <v>0.4246433560800966</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1639840540554616</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002094427629041995</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3403680578925616</v>
       </c>
       <c r="K14">
-        <v>1.21370326555521</v>
+        <v>0.2822434377733387</v>
       </c>
       <c r="L14">
-        <v>0.2164285347347317</v>
+        <v>0.05635164221706646</v>
       </c>
       <c r="M14">
-        <v>0.3257006807126075</v>
+        <v>1.58470618755257</v>
       </c>
       <c r="N14">
-        <v>0.8380989829844578</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.770696032520505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.732229938699394</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.506429293630362</v>
+        <v>1.393181963894762</v>
       </c>
       <c r="C15">
-        <v>0.1081998073621051</v>
+        <v>0.2601566350978146</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06502273628666444</v>
+        <v>0.3870460482132287</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.680771575073777</v>
       </c>
       <c r="G15">
-        <v>0.0008088565494183571</v>
+        <v>0.4154368595147986</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1762787468667142</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.00210743968394933</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3363768780568108</v>
       </c>
       <c r="K15">
-        <v>1.20031143834143</v>
+        <v>0.2789196271139467</v>
       </c>
       <c r="L15">
-        <v>0.2144328992315252</v>
+        <v>0.05860385186021233</v>
       </c>
       <c r="M15">
-        <v>0.3222419003240944</v>
+        <v>1.558899607600551</v>
       </c>
       <c r="N15">
-        <v>0.8431927500562653</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.768838811925946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7378611565749509</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.411286099140597</v>
+        <v>1.30480826290875</v>
       </c>
       <c r="C16">
-        <v>0.1076386694036344</v>
+        <v>0.2442631444928622</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0636105852735831</v>
+        <v>0.3694219048880072</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.61538853126406</v>
       </c>
       <c r="G16">
-        <v>0.0008111599918521704</v>
+        <v>0.4085755236239663</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1627455423903399</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001828572039853427</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3368226391694975</v>
       </c>
       <c r="K16">
-        <v>1.123709396352723</v>
+        <v>0.2811811975373999</v>
       </c>
       <c r="L16">
-        <v>0.2030690312617907</v>
+        <v>0.05588664075298766</v>
       </c>
       <c r="M16">
-        <v>0.3024926014581624</v>
+        <v>1.460960320615158</v>
       </c>
       <c r="N16">
-        <v>0.872816496795159</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.759542658293327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7562134188784846</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353138050459279</v>
+        <v>1.261326924238404</v>
       </c>
       <c r="C17">
-        <v>0.107302035387832</v>
+        <v>0.2404487824084214</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06276946629912672</v>
+        <v>0.4235482252809462</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>1.696833824407861</v>
       </c>
       <c r="G17">
-        <v>0.0008125890097161633</v>
+        <v>0.4202982572773948</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1246461875592075</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.00175748213454785</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3452031515710843</v>
       </c>
       <c r="K17">
-        <v>1.076832689896833</v>
+        <v>0.2897543255764461</v>
       </c>
       <c r="L17">
-        <v>0.1961596817444899</v>
+        <v>0.04916398537272926</v>
       </c>
       <c r="M17">
-        <v>0.2904377285291702</v>
+        <v>1.418823110545645</v>
       </c>
       <c r="N17">
-        <v>0.8913696311164587</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.755007651399893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7632853709443452</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.319768204095851</v>
+        <v>1.253557348314757</v>
       </c>
       <c r="C18">
-        <v>0.1071111656011681</v>
+        <v>0.2456726477482079</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06229468974434837</v>
+        <v>0.5596005909640738</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.926150916490485</v>
       </c>
       <c r="G18">
-        <v>0.0008134169120855623</v>
+        <v>0.4513599646544719</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0718736638596198</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.00151145386893603</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3623121537164735</v>
       </c>
       <c r="K18">
-        <v>1.049909375449573</v>
+        <v>0.3060122275914985</v>
       </c>
       <c r="L18">
-        <v>0.1922074251647814</v>
+        <v>0.04336316625015257</v>
       </c>
       <c r="M18">
-        <v>0.2835251536680943</v>
+        <v>1.420127329081907</v>
       </c>
       <c r="N18">
-        <v>0.9021778787496348</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.75281530159134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7623845924294699</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.308482212841767</v>
+        <v>1.269808886569081</v>
       </c>
       <c r="C19">
-        <v>0.1070470094007305</v>
+        <v>0.2600834203665983</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0621354638262801</v>
+        <v>0.7771473221346668</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.272971158745591</v>
       </c>
       <c r="G19">
-        <v>0.0008136982615886201</v>
+        <v>0.4934233447743708</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.027152091863897</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001657426119472838</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.38386350051573</v>
       </c>
       <c r="K19">
-        <v>1.040799941766721</v>
+        <v>0.3256122613768007</v>
       </c>
       <c r="L19">
-        <v>0.1908729162582574</v>
+        <v>0.04644035322837681</v>
       </c>
       <c r="M19">
-        <v>0.2811881792575122</v>
+        <v>1.454894883185602</v>
       </c>
       <c r="N19">
-        <v>0.9058606459898231</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.752143253114525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7577347251762347</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.359320093785612</v>
+        <v>1.362777663384634</v>
       </c>
       <c r="C20">
-        <v>0.10733758478802</v>
+        <v>0.2963826628947288</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06285806663073501</v>
+        <v>1.212726552455578</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.946736987522172</v>
       </c>
       <c r="G20">
-        <v>0.0008124362730794088</v>
+        <v>0.5714153438773621</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.003400064077869303</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002014888081493638</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4204095766494049</v>
       </c>
       <c r="K20">
-        <v>1.081818683253715</v>
+        <v>0.3579421095394544</v>
       </c>
       <c r="L20">
-        <v>0.196892914116745</v>
+        <v>0.07292679252287826</v>
       </c>
       <c r="M20">
-        <v>0.2917187824772327</v>
+        <v>1.585795375399073</v>
       </c>
       <c r="N20">
-        <v>0.8893803831828677</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.7554470584532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7399655782620869</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.531065514437103</v>
+        <v>1.539765310855984</v>
       </c>
       <c r="C21">
-        <v>0.108347069207575</v>
+        <v>0.3367021731516502</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06539531742403426</v>
+        <v>1.397741150416365</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>3.304050006936876</v>
       </c>
       <c r="G21">
-        <v>0.0008082666753729138</v>
+        <v>0.6111461950564347</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.006522822439630205</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003032317525865302</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4329340399132491</v>
       </c>
       <c r="K21">
-        <v>1.220127646974021</v>
+        <v>0.3656422396156245</v>
       </c>
       <c r="L21">
-        <v>0.2173868113881667</v>
+        <v>0.08277233873030809</v>
       </c>
       <c r="M21">
-        <v>0.3273605717461479</v>
+        <v>1.794171446054122</v>
       </c>
       <c r="N21">
-        <v>0.8356641482998608</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.771610931914182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7003406584927507</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.644095212492601</v>
+        <v>1.656927971754726</v>
       </c>
       <c r="C22">
-        <v>0.1090322671329886</v>
+        <v>0.3607109294207476</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06713911546488305</v>
+        <v>1.496424239296402</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>3.512355230484872</v>
       </c>
       <c r="G22">
-        <v>0.0008055922692881134</v>
+        <v>0.6371456078439763</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008985388576485565</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003690211943953692</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.44122867961417</v>
       </c>
       <c r="K22">
-        <v>1.310949174757724</v>
+        <v>0.3712475441848397</v>
       </c>
       <c r="L22">
-        <v>0.2309961672721101</v>
+        <v>0.08764663449241539</v>
       </c>
       <c r="M22">
-        <v>0.350868944180931</v>
+        <v>1.928303425693343</v>
       </c>
       <c r="N22">
-        <v>0.8018346937497398</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.786165315506423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6754161105752585</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.583691691220167</v>
+        <v>1.597702844356519</v>
       </c>
       <c r="C23">
-        <v>0.1086641886462019</v>
+        <v>0.3464635250250865</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06620032343141702</v>
+        <v>1.44196376830601</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>3.403765660470668</v>
       </c>
       <c r="G23">
-        <v>0.0008070151386639596</v>
+        <v>0.6257358044785661</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.007632034809249399</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003028423283075732</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4380562573793441</v>
       </c>
       <c r="K23">
-        <v>1.262432656618756</v>
+        <v>0.3699085123337831</v>
       </c>
       <c r="L23">
-        <v>0.2237118260937478</v>
+        <v>0.08522178009367209</v>
       </c>
       <c r="M23">
-        <v>0.3383011162779326</v>
+        <v>1.857576074084193</v>
       </c>
       <c r="N23">
-        <v>0.819770358512919</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.778017890486694</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6887436543889311</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356525005581744</v>
+        <v>1.368138276074916</v>
       </c>
       <c r="C24">
-        <v>0.1073215046113063</v>
+        <v>0.2955178927570614</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06281798308722486</v>
+        <v>1.239607687445115</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.991795089372857</v>
       </c>
       <c r="G24">
-        <v>0.0008125053055563382</v>
+        <v>0.5800498006213104</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.003435879966475319</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001547696752842498</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4248529646291672</v>
       </c>
       <c r="K24">
-        <v>1.079564433290216</v>
+        <v>0.3628653950385115</v>
       </c>
       <c r="L24">
-        <v>0.1965613576309408</v>
+        <v>0.07581810992864391</v>
       </c>
       <c r="M24">
-        <v>0.2911395624226643</v>
+        <v>1.589205903812513</v>
       </c>
       <c r="N24">
-        <v>0.890279281110903</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.755247113340374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.740605203717438</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.11431282201832</v>
+        <v>1.12067986408141</v>
       </c>
       <c r="C25">
-        <v>0.1059780298726274</v>
+        <v>0.2418209502601627</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0595114013668514</v>
+        <v>1.023089573373724</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>2.554253610535739</v>
       </c>
       <c r="G25">
-        <v>0.0008186568617121361</v>
+        <v>0.5339745805475928</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0006942932885327657</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001081061985286347</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4124253422702253</v>
       </c>
       <c r="K25">
-        <v>0.8837579684038701</v>
+        <v>0.3568143887153354</v>
       </c>
       <c r="L25">
-        <v>0.1680984568626442</v>
+        <v>0.06577758342977447</v>
       </c>
       <c r="M25">
-        <v>0.2410599628331092</v>
+        <v>1.301319407792818</v>
       </c>
       <c r="N25">
-        <v>0.9715422079809972</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.746446688694817</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7995479720138885</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9461502429479651</v>
+        <v>0.8986308317488749</v>
       </c>
       <c r="C2">
-        <v>0.1997987924504798</v>
+        <v>0.2174622093367162</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.8605562300917029</v>
+        <v>0.8915225565495462</v>
       </c>
       <c r="F2">
-        <v>2.243247837120506</v>
+        <v>2.19754553225583</v>
       </c>
       <c r="G2">
-        <v>0.5085687291335717</v>
+        <v>0.4420996659370786</v>
       </c>
       <c r="H2">
-        <v>2.302527643216479E-06</v>
+        <v>9.379479571691718E-06</v>
       </c>
       <c r="I2">
-        <v>0.0008771523916166757</v>
+        <v>0.0006831696779432406</v>
       </c>
       <c r="J2">
-        <v>0.4078307082207004</v>
+        <v>0.4075643590974067</v>
       </c>
       <c r="K2">
-        <v>0.3576773786041549</v>
+        <v>0.3168891393662676</v>
       </c>
       <c r="L2">
-        <v>0.05883696162396745</v>
+        <v>0.1621741652652595</v>
       </c>
       <c r="M2">
-        <v>1.092292642881858</v>
+        <v>0.08338767758117349</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05553154122783965</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.081231042583738</v>
       </c>
       <c r="P2">
-        <v>0.8459605806720356</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8205718910594193</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8230299890427375</v>
+        <v>0.7859567875471214</v>
       </c>
       <c r="C3">
-        <v>0.1736514457240474</v>
+        <v>0.1868689170197655</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7532509045435205</v>
+        <v>0.7790100317074717</v>
       </c>
       <c r="F3">
-        <v>2.030773098136038</v>
+        <v>1.993269419721599</v>
       </c>
       <c r="G3">
-        <v>0.4890032918928853</v>
+        <v>0.4297004062183447</v>
       </c>
       <c r="H3">
-        <v>0.0002599189211380803</v>
+        <v>0.0001996980225120737</v>
       </c>
       <c r="I3">
-        <v>0.001553005303978061</v>
+        <v>0.001047491537662371</v>
       </c>
       <c r="J3">
-        <v>0.4036411430859204</v>
+        <v>0.4026894858936956</v>
       </c>
       <c r="K3">
-        <v>0.3565108086008095</v>
+        <v>0.3186432062508189</v>
       </c>
       <c r="L3">
-        <v>0.05387086453634993</v>
+        <v>0.1668057160202103</v>
       </c>
       <c r="M3">
-        <v>0.949640523330487</v>
+        <v>0.08135255646727124</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.05104775010072693</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9416606379292318</v>
       </c>
       <c r="P3">
-        <v>0.8785057297139467</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8491816342725524</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7471239940633723</v>
+        <v>0.7162558525519387</v>
       </c>
       <c r="C4">
-        <v>0.1578193488011266</v>
+        <v>0.168400992150751</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.687585836335785</v>
+        <v>0.7102250180048486</v>
       </c>
       <c r="F4">
-        <v>1.901062374243722</v>
+        <v>1.86842893612743</v>
       </c>
       <c r="G4">
-        <v>0.4774243245454031</v>
+        <v>0.4224905711377005</v>
       </c>
       <c r="H4">
-        <v>0.0007475631322424459</v>
+        <v>0.0006285898492410791</v>
       </c>
       <c r="I4">
-        <v>0.002180488924833135</v>
+        <v>0.001440914069662291</v>
       </c>
       <c r="J4">
-        <v>0.4013580310353078</v>
+        <v>0.399745718738842</v>
       </c>
       <c r="K4">
-        <v>0.3560113842378243</v>
+        <v>0.3198384382191648</v>
       </c>
       <c r="L4">
-        <v>0.05079822437768655</v>
+        <v>0.1697120855932468</v>
       </c>
       <c r="M4">
-        <v>0.8620633994271145</v>
+        <v>0.0806398016339962</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04826505912766521</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8558608356278512</v>
       </c>
       <c r="P4">
-        <v>0.8991226198509557</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8674135194171662</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7153062101282899</v>
+        <v>0.6869583884615906</v>
       </c>
       <c r="C5">
-        <v>0.1517574160762791</v>
+        <v>0.1612961062531895</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.6612993662219964</v>
+        <v>0.682679266676061</v>
       </c>
       <c r="F5">
-        <v>1.847676059633415</v>
+        <v>1.817015533509519</v>
       </c>
       <c r="G5">
-        <v>0.4721576596857062</v>
+        <v>0.4190541732964945</v>
       </c>
       <c r="H5">
-        <v>0.001025484704695545</v>
+        <v>0.0008783578916773394</v>
       </c>
       <c r="I5">
-        <v>0.002560991133065738</v>
+        <v>0.001727302617815951</v>
       </c>
       <c r="J5">
-        <v>0.4001608754678045</v>
+        <v>0.3982347546159843</v>
       </c>
       <c r="K5">
-        <v>0.3554209948230742</v>
+        <v>0.3199614667591533</v>
       </c>
       <c r="L5">
-        <v>0.04949505458670167</v>
+        <v>0.1707140218297098</v>
       </c>
       <c r="M5">
-        <v>0.8261518269052033</v>
+        <v>0.08038532242729701</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04708181998465477</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8206547929534338</v>
       </c>
       <c r="P5">
-        <v>0.9075784507996545</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8749643592070289</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7090343867683373</v>
+        <v>0.681154044832823</v>
       </c>
       <c r="C6">
-        <v>0.1511698725783646</v>
+        <v>0.1605465929623477</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.6574598361654438</v>
+        <v>0.6786228520028033</v>
       </c>
       <c r="F6">
-        <v>1.837974642176249</v>
+        <v>1.807673088150693</v>
       </c>
       <c r="G6">
-        <v>0.4704951253836356</v>
+        <v>0.4177660534016141</v>
       </c>
       <c r="H6">
-        <v>0.001077082951982611</v>
+        <v>0.0009249227340921706</v>
       </c>
       <c r="I6">
-        <v>0.00272500462477776</v>
+        <v>0.001890581458238394</v>
       </c>
       <c r="J6">
-        <v>0.3995553429108512</v>
+        <v>0.3975905093138152</v>
       </c>
       <c r="K6">
-        <v>0.3547904318788078</v>
+        <v>0.3195055581228985</v>
       </c>
       <c r="L6">
-        <v>0.04922447769698302</v>
+        <v>0.1706403768714253</v>
       </c>
       <c r="M6">
-        <v>0.8199229062765028</v>
+        <v>0.08023117814515324</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04683503859396154</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8145513916496725</v>
       </c>
       <c r="P6">
-        <v>0.9088715585140514</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.876180040354015</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.743999247988711</v>
+        <v>0.712689568739421</v>
       </c>
       <c r="C7">
-        <v>0.1588760385288595</v>
+        <v>0.1689163316256952</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6886619204743312</v>
+        <v>0.7121762241095553</v>
       </c>
       <c r="F7">
-        <v>1.89802966618096</v>
+        <v>1.864068319567707</v>
       </c>
       <c r="G7">
-        <v>0.4751841339891669</v>
+        <v>0.4228563118455639</v>
       </c>
       <c r="H7">
-        <v>0.0007528161939311939</v>
+        <v>0.0006344281088908055</v>
       </c>
       <c r="I7">
-        <v>0.002436348645425745</v>
+        <v>0.00173891645007096</v>
       </c>
       <c r="J7">
-        <v>0.400220768864159</v>
+        <v>0.3941137120022731</v>
       </c>
       <c r="K7">
-        <v>0.3545412680655886</v>
+        <v>0.3179737300274645</v>
       </c>
       <c r="L7">
-        <v>0.05063353604938747</v>
+        <v>0.1688078928706744</v>
       </c>
       <c r="M7">
-        <v>0.8608517373929203</v>
+        <v>0.08014398560260894</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04802547911359767</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8533939939094353</v>
       </c>
       <c r="P7">
-        <v>0.8989237815090778</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8673788953198933</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9001537355106564</v>
+        <v>0.8544074619312028</v>
       </c>
       <c r="C8">
-        <v>0.1922526740081025</v>
+        <v>0.2065346851978518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.8254119896075309</v>
+        <v>0.8576156328825277</v>
       </c>
       <c r="F8">
-        <v>2.166746641274699</v>
+        <v>2.11921263428269</v>
       </c>
       <c r="G8">
-        <v>0.4988608066394278</v>
+        <v>0.4431258551339212</v>
       </c>
       <c r="H8">
-        <v>2.049017656435836E-05</v>
+        <v>8.415503168546223E-06</v>
       </c>
       <c r="I8">
-        <v>0.00136287976495808</v>
+        <v>0.001127464442582493</v>
       </c>
       <c r="J8">
-        <v>0.4048481604787924</v>
+        <v>0.3897011119287725</v>
       </c>
       <c r="K8">
-        <v>0.3553025898798374</v>
+        <v>0.3139339643708006</v>
       </c>
       <c r="L8">
-        <v>0.056932453820842</v>
+        <v>0.1621664224165507</v>
       </c>
       <c r="M8">
-        <v>1.042121619860467</v>
+        <v>0.08149516317668137</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.05351944054077151</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.027850926286533</v>
       </c>
       <c r="P8">
-        <v>0.8567107923223514</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.830318675122852</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.209011179922726</v>
+        <v>1.135169884565556</v>
       </c>
       <c r="C9">
-        <v>0.2576721026879198</v>
+        <v>0.2829858687406102</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.093217650795069</v>
+        <v>1.139776386530684</v>
       </c>
       <c r="F9">
-        <v>2.705036777324153</v>
+        <v>2.634571774036331</v>
       </c>
       <c r="G9">
-        <v>0.552983212549961</v>
+        <v>0.4812238106954538</v>
       </c>
       <c r="H9">
-        <v>0.001402231305319024</v>
+        <v>0.001442013651627105</v>
       </c>
       <c r="I9">
-        <v>0.0006961342828946115</v>
+        <v>0.0009173091873586614</v>
       </c>
       <c r="J9">
-        <v>0.4183717066119925</v>
+        <v>0.3994366458931466</v>
       </c>
       <c r="K9">
-        <v>0.3612485185701289</v>
+        <v>0.3113709835214955</v>
       </c>
       <c r="L9">
-        <v>0.06942163749245722</v>
+        <v>0.151665263577641</v>
       </c>
       <c r="M9">
-        <v>1.3994861232716</v>
+        <v>0.0897140705519206</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06466943756015198</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.375477658733445</v>
       </c>
       <c r="P9">
-        <v>0.7796018195473593</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7632215558187738</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.429429305603122</v>
+        <v>1.33099950486357</v>
       </c>
       <c r="C10">
-        <v>0.3055088801447425</v>
+        <v>0.3355243155048129</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.251623842464923</v>
+        <v>1.31328177334683</v>
       </c>
       <c r="F10">
-        <v>3.046480695043613</v>
+        <v>2.951264221671437</v>
       </c>
       <c r="G10">
-        <v>0.5877242630303812</v>
+        <v>0.5195632068827507</v>
       </c>
       <c r="H10">
-        <v>0.004342986255708059</v>
+        <v>0.004297664732749062</v>
       </c>
       <c r="I10">
-        <v>0.001596251047475405</v>
+        <v>0.001894789529982788</v>
       </c>
       <c r="J10">
-        <v>0.4261345832075278</v>
+        <v>0.3794080460409788</v>
       </c>
       <c r="K10">
-        <v>0.363107161283164</v>
+        <v>0.3042240108555525</v>
       </c>
       <c r="L10">
-        <v>0.07499829097140776</v>
+        <v>0.1421351598698699</v>
       </c>
       <c r="M10">
-        <v>1.655846503715253</v>
+        <v>0.0960308259272189</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06906983244056519</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.616413624422194</v>
       </c>
       <c r="P10">
-        <v>0.7266579541451783</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7194455545275176</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.489173555376794</v>
+        <v>1.381119197414193</v>
       </c>
       <c r="C11">
-        <v>0.3084570580657555</v>
+        <v>0.3307361519612471</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9907306278719119</v>
+        <v>1.055407173754261</v>
       </c>
       <c r="F11">
-        <v>2.7016829113673</v>
+        <v>2.595988746165517</v>
       </c>
       <c r="G11">
-        <v>0.5425260555792164</v>
+        <v>0.5087348474160081</v>
       </c>
       <c r="H11">
-        <v>0.0224181868438933</v>
+        <v>0.022326248505248</v>
       </c>
       <c r="I11">
-        <v>0.00245840402939379</v>
+        <v>0.002804939152473374</v>
       </c>
       <c r="J11">
-        <v>0.3995478521695901</v>
+        <v>0.3130923516647925</v>
       </c>
       <c r="K11">
-        <v>0.3355557292870444</v>
+        <v>0.2748556766787615</v>
       </c>
       <c r="L11">
-        <v>0.05473135619178926</v>
+        <v>0.1289665071332848</v>
       </c>
       <c r="M11">
-        <v>1.711117320079836</v>
+        <v>0.08834977505327757</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05107582199260108</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.653760985473554</v>
       </c>
       <c r="P11">
-        <v>0.7085948680536305</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7158884102677732</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.496889950639485</v>
+        <v>1.38813097707947</v>
       </c>
       <c r="C12">
-        <v>0.2988974924365948</v>
+        <v>0.3158469301237119</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7638679786144991</v>
+        <v>0.8234664210897762</v>
       </c>
       <c r="F12">
-        <v>2.361413963537004</v>
+        <v>2.258261806468653</v>
       </c>
       <c r="G12">
-        <v>0.501172441273809</v>
+        <v>0.4850867387589233</v>
       </c>
       <c r="H12">
-        <v>0.06038200397244253</v>
+        <v>0.06028816401987314</v>
       </c>
       <c r="I12">
-        <v>0.002518105416151606</v>
+        <v>0.00284339875694517</v>
       </c>
       <c r="J12">
-        <v>0.3773962262360016</v>
+        <v>0.2810982737111232</v>
       </c>
       <c r="K12">
-        <v>0.3146305231237108</v>
+        <v>0.2561133164578067</v>
       </c>
       <c r="L12">
-        <v>0.04747027903317269</v>
+        <v>0.1216722881119825</v>
       </c>
       <c r="M12">
-        <v>1.70385213178335</v>
+        <v>0.08199579968804116</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04659284296899191</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.639572729465527</v>
       </c>
       <c r="P12">
-        <v>0.7076022903238979</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7247493312922515</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.460644979000932</v>
+        <v>1.360030286078711</v>
       </c>
       <c r="C13">
-        <v>0.28105237912348</v>
+        <v>0.2955588244866192</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5535799580193412</v>
+        <v>0.6014087181037269</v>
       </c>
       <c r="F13">
-        <v>2.003292848461442</v>
+        <v>1.91445108072989</v>
       </c>
       <c r="G13">
-        <v>0.4569829976469606</v>
+        <v>0.4416656577897697</v>
       </c>
       <c r="H13">
-        <v>0.1152519671459658</v>
+        <v>0.1151872178052997</v>
       </c>
       <c r="I13">
-        <v>0.002286244118269387</v>
+        <v>0.002627741312778653</v>
       </c>
       <c r="J13">
-        <v>0.3555879171460106</v>
+        <v>0.2724796266342864</v>
       </c>
       <c r="K13">
-        <v>0.2952674337503396</v>
+        <v>0.2430844587500403</v>
       </c>
       <c r="L13">
-        <v>0.04943910480287528</v>
+        <v>0.1175077093038297</v>
       </c>
       <c r="M13">
-        <v>1.646934712432341</v>
+        <v>0.07607096190222506</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05125614143694968</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.587261556154289</v>
       </c>
       <c r="P13">
-        <v>0.7187108598402538</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7405553106932317</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.41470444920833</v>
+        <v>1.323683085126333</v>
       </c>
       <c r="C14">
-        <v>0.2652944441242511</v>
+        <v>0.279241830503139</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4193124152281982</v>
+        <v>0.4570837621550581</v>
       </c>
       <c r="F14">
-        <v>1.749027799364768</v>
+        <v>1.674265919358504</v>
       </c>
       <c r="G14">
-        <v>0.4246433560800966</v>
+        <v>0.4034738631992241</v>
       </c>
       <c r="H14">
-        <v>0.1639840540554616</v>
+        <v>0.1639464138559816</v>
       </c>
       <c r="I14">
-        <v>0.002094427629041995</v>
+        <v>0.002471579481349018</v>
       </c>
       <c r="J14">
-        <v>0.3403680578925616</v>
+        <v>0.2748620606864165</v>
       </c>
       <c r="K14">
-        <v>0.2822434377733387</v>
+        <v>0.2360453426232105</v>
       </c>
       <c r="L14">
-        <v>0.05635164221706646</v>
+        <v>0.1157084605202972</v>
       </c>
       <c r="M14">
-        <v>1.58470618755257</v>
+        <v>0.07204911482302379</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05964962690836018</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.533162074601762</v>
       </c>
       <c r="P14">
-        <v>0.732229938699394</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7544070650545152</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.393181963894762</v>
+        <v>1.306257871903682</v>
       </c>
       <c r="C15">
-        <v>0.2601566350978146</v>
+        <v>0.2744191437938923</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3870460482132287</v>
+        <v>0.4215756824749661</v>
       </c>
       <c r="F15">
-        <v>1.680771575073777</v>
+        <v>1.611239810061946</v>
       </c>
       <c r="G15">
-        <v>0.4154368595147986</v>
+        <v>0.3903508236881947</v>
       </c>
       <c r="H15">
-        <v>0.1762787468667142</v>
+        <v>0.1762515416170913</v>
       </c>
       <c r="I15">
-        <v>0.00210743968394933</v>
+        <v>0.002518861034757514</v>
       </c>
       <c r="J15">
-        <v>0.3363768780568108</v>
+        <v>0.2789414855829264</v>
       </c>
       <c r="K15">
-        <v>0.2789196271139467</v>
+        <v>0.2349209672540624</v>
       </c>
       <c r="L15">
-        <v>0.05860385186021233</v>
+        <v>0.1156543795368066</v>
       </c>
       <c r="M15">
-        <v>1.558899607600551</v>
+        <v>0.07097980739380461</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06209856092223731</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.51144548522754</v>
       </c>
       <c r="P15">
-        <v>0.7378611565749509</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7589492417621102</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.30480826290875</v>
+        <v>1.2326666243452</v>
       </c>
       <c r="C16">
-        <v>0.2442631444928622</v>
+        <v>0.2619223067781036</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3694219048880072</v>
+        <v>0.3962761755559399</v>
       </c>
       <c r="F16">
-        <v>1.61538853126406</v>
+        <v>1.561803258812404</v>
       </c>
       <c r="G16">
-        <v>0.4085755236239663</v>
+        <v>0.3631124898335898</v>
       </c>
       <c r="H16">
-        <v>0.1627455423903399</v>
+        <v>0.162751770509459</v>
       </c>
       <c r="I16">
-        <v>0.001828572039853427</v>
+        <v>0.002278957766949752</v>
       </c>
       <c r="J16">
-        <v>0.3368226391694975</v>
+        <v>0.3131055728527841</v>
       </c>
       <c r="K16">
-        <v>0.2811811975373999</v>
+        <v>0.2430819094056815</v>
       </c>
       <c r="L16">
-        <v>0.05588664075298766</v>
+        <v>0.1203416463598561</v>
       </c>
       <c r="M16">
-        <v>1.460960320615158</v>
+        <v>0.07112139999237144</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05832607204238727</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.431061786588572</v>
       </c>
       <c r="P16">
-        <v>0.7562134188784846</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7671562029961052</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261326924238404</v>
+        <v>1.194393817550406</v>
       </c>
       <c r="C17">
-        <v>0.2404487824084214</v>
+        <v>0.2602608142987464</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4235482252809462</v>
+        <v>0.449560289205337</v>
       </c>
       <c r="F17">
-        <v>1.696833824407861</v>
+        <v>1.647458114896381</v>
       </c>
       <c r="G17">
-        <v>0.4202982572773948</v>
+        <v>0.3648625123145877</v>
       </c>
       <c r="H17">
-        <v>0.1246461875592075</v>
+        <v>0.1246616737887507</v>
       </c>
       <c r="I17">
-        <v>0.00175748213454785</v>
+        <v>0.002211583737746103</v>
       </c>
       <c r="J17">
-        <v>0.3452031515710843</v>
+        <v>0.3360611796027868</v>
       </c>
       <c r="K17">
-        <v>0.2897543255764461</v>
+        <v>0.2527162119515829</v>
       </c>
       <c r="L17">
-        <v>0.04916398537272926</v>
+        <v>0.1250163465377625</v>
       </c>
       <c r="M17">
-        <v>1.418823110545645</v>
+        <v>0.07306395451476355</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05051224454427228</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.396040432569407</v>
       </c>
       <c r="P17">
-        <v>0.7632853709443452</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7680027154333047</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.253557348314757</v>
+        <v>1.185683283713729</v>
       </c>
       <c r="C18">
-        <v>0.2456726477482079</v>
+        <v>0.2680291649829485</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5596005909640738</v>
+        <v>0.5892144451626677</v>
       </c>
       <c r="F18">
-        <v>1.926150916490485</v>
+        <v>1.873872331791262</v>
       </c>
       <c r="G18">
-        <v>0.4513599646544719</v>
+        <v>0.3879628634417855</v>
       </c>
       <c r="H18">
-        <v>0.0718736638596198</v>
+        <v>0.07189364263485487</v>
       </c>
       <c r="I18">
-        <v>0.00151145386893603</v>
+        <v>0.001916823297038128</v>
       </c>
       <c r="J18">
-        <v>0.3623121537164735</v>
+        <v>0.3578980312027582</v>
       </c>
       <c r="K18">
-        <v>0.3060122275914985</v>
+        <v>0.2667631024304882</v>
       </c>
       <c r="L18">
-        <v>0.04336316625015257</v>
+        <v>0.1309743872914577</v>
       </c>
       <c r="M18">
-        <v>1.420127329081907</v>
+        <v>0.0774306189909808</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04331900438305603</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.399405719445468</v>
       </c>
       <c r="P18">
-        <v>0.7623845924294699</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7619979976524576</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.269808886569081</v>
+        <v>1.197060756849737</v>
       </c>
       <c r="C19">
-        <v>0.2600834203665983</v>
+        <v>0.2857317529703209</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.7771473221346668</v>
+        <v>0.813682051286662</v>
       </c>
       <c r="F19">
-        <v>2.272971158745591</v>
+        <v>2.212934273867873</v>
       </c>
       <c r="G19">
-        <v>0.4934233447743708</v>
+        <v>0.4224879976741249</v>
       </c>
       <c r="H19">
-        <v>0.027152091863897</v>
+        <v>0.02717555833571339</v>
       </c>
       <c r="I19">
-        <v>0.001657426119472838</v>
+        <v>0.00209377563041091</v>
       </c>
       <c r="J19">
-        <v>0.38386350051573</v>
+        <v>0.3785572365123926</v>
       </c>
       <c r="K19">
-        <v>0.3256122613768007</v>
+        <v>0.2822228342915061</v>
       </c>
       <c r="L19">
-        <v>0.04644035322837681</v>
+        <v>0.1370857619598169</v>
       </c>
       <c r="M19">
-        <v>1.454894883185602</v>
+        <v>0.08298313140656788</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04463378260970252</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.433307489163496</v>
       </c>
       <c r="P19">
-        <v>0.7577347251762347</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7530068259062119</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.362777663384634</v>
+        <v>1.273813787904771</v>
       </c>
       <c r="C20">
-        <v>0.2963826628947288</v>
+        <v>0.3273579073909616</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.212726552455578</v>
+        <v>1.266921999358814</v>
       </c>
       <c r="F20">
-        <v>2.946736987522172</v>
+        <v>2.863722025068057</v>
       </c>
       <c r="G20">
-        <v>0.5714153438773621</v>
+        <v>0.4941691402484736</v>
       </c>
       <c r="H20">
-        <v>0.003400064077869303</v>
+        <v>0.003394961021035758</v>
       </c>
       <c r="I20">
-        <v>0.002014888081493638</v>
+        <v>0.002480052341232053</v>
       </c>
       <c r="J20">
-        <v>0.4204095766494049</v>
+        <v>0.3964052053667189</v>
       </c>
       <c r="K20">
-        <v>0.3579421095394544</v>
+        <v>0.3040901629899722</v>
       </c>
       <c r="L20">
-        <v>0.07292679252287826</v>
+        <v>0.1438642052170778</v>
       </c>
       <c r="M20">
-        <v>1.585795375399073</v>
+        <v>0.09346041297681396</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06766957492797943</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.555409697452376</v>
       </c>
       <c r="P20">
-        <v>0.7399655782620869</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7308423944380138</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.539765310855984</v>
+        <v>1.417754611565755</v>
       </c>
       <c r="C21">
-        <v>0.3367021731516502</v>
+        <v>0.3609459873947571</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.397741150416365</v>
+        <v>1.484225183232724</v>
       </c>
       <c r="F21">
-        <v>3.304050006936876</v>
+        <v>3.171105063066193</v>
       </c>
       <c r="G21">
-        <v>0.6111461950564347</v>
+        <v>0.5836622157230096</v>
       </c>
       <c r="H21">
-        <v>0.006522822439630205</v>
+        <v>0.006349201498847989</v>
       </c>
       <c r="I21">
-        <v>0.003032317525865302</v>
+        <v>0.003370174062923503</v>
       </c>
       <c r="J21">
-        <v>0.4329340399132491</v>
+        <v>0.316308508962301</v>
       </c>
       <c r="K21">
-        <v>0.3656422396156245</v>
+        <v>0.2935493746164006</v>
       </c>
       <c r="L21">
-        <v>0.08277233873030809</v>
+        <v>0.1351314633562914</v>
       </c>
       <c r="M21">
-        <v>1.794171446054122</v>
+        <v>0.09670728051712629</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07437771642817737</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.725567693089232</v>
       </c>
       <c r="P21">
-        <v>0.7003406584927507</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7001682180156905</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.656927971754726</v>
+        <v>1.512004876657301</v>
       </c>
       <c r="C22">
-        <v>0.3607109294207476</v>
+        <v>0.3793472172289682</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.496424239296402</v>
+        <v>1.605490052343995</v>
       </c>
       <c r="F22">
-        <v>3.512355230484872</v>
+        <v>3.344381794250097</v>
       </c>
       <c r="G22">
-        <v>0.6371456078439763</v>
+        <v>0.649920564321576</v>
       </c>
       <c r="H22">
-        <v>0.008985388576485565</v>
+        <v>0.008657451822645018</v>
       </c>
       <c r="I22">
-        <v>0.003690211943953692</v>
+        <v>0.0037874171561878</v>
       </c>
       <c r="J22">
-        <v>0.44122867961417</v>
+        <v>0.269590959620281</v>
       </c>
       <c r="K22">
-        <v>0.3712475441848397</v>
+        <v>0.2864318352883402</v>
       </c>
       <c r="L22">
-        <v>0.08764663449241539</v>
+        <v>0.1295909148025611</v>
       </c>
       <c r="M22">
-        <v>1.928303425693343</v>
+        <v>0.09893194446913256</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0771749982256118</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.832113143749467</v>
       </c>
       <c r="P22">
-        <v>0.6754161105752585</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6821615603292592</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.597702844356519</v>
+        <v>1.466529224917224</v>
       </c>
       <c r="C23">
-        <v>0.3464635250250865</v>
+        <v>0.3696243009886473</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.44196376830601</v>
+        <v>1.536293110481921</v>
       </c>
       <c r="F23">
-        <v>3.403765660470668</v>
+        <v>3.258351521324954</v>
       </c>
       <c r="G23">
-        <v>0.6257358044785661</v>
+        <v>0.6093869928529472</v>
       </c>
       <c r="H23">
-        <v>0.007632034809249399</v>
+        <v>0.007397110389460115</v>
       </c>
       <c r="I23">
-        <v>0.003028423283075732</v>
+        <v>0.003205982325531487</v>
       </c>
       <c r="J23">
-        <v>0.4380562573793441</v>
+        <v>0.3022566096126553</v>
       </c>
       <c r="K23">
-        <v>0.3699085123337831</v>
+        <v>0.2929092883838358</v>
       </c>
       <c r="L23">
-        <v>0.08522178009367209</v>
+        <v>0.1334098673843691</v>
       </c>
       <c r="M23">
-        <v>1.857576074084193</v>
+        <v>0.09886747302124022</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07607068419120111</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.779699608805117</v>
       </c>
       <c r="P23">
-        <v>0.6887436543889311</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6906908138515142</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.368138276074916</v>
+        <v>1.27853555040241</v>
       </c>
       <c r="C24">
-        <v>0.2955178927570614</v>
+        <v>0.3268054398082825</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.239607687445115</v>
+        <v>1.294521688886618</v>
       </c>
       <c r="F24">
-        <v>2.991795089372857</v>
+        <v>2.90790523292921</v>
       </c>
       <c r="G24">
-        <v>0.5800498006213104</v>
+        <v>0.5012753939882941</v>
       </c>
       <c r="H24">
-        <v>0.003435879966475319</v>
+        <v>0.003430000540783684</v>
       </c>
       <c r="I24">
-        <v>0.001547696752842498</v>
+        <v>0.001913736803137667</v>
       </c>
       <c r="J24">
-        <v>0.4248529646291672</v>
+        <v>0.401054158852773</v>
       </c>
       <c r="K24">
-        <v>0.3628653950385115</v>
+        <v>0.3082105143036173</v>
       </c>
       <c r="L24">
-        <v>0.07581810992864391</v>
+        <v>0.1454606278075659</v>
       </c>
       <c r="M24">
-        <v>1.589205903812513</v>
+        <v>0.09496143240369292</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07030709934889856</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.558890108170601</v>
       </c>
       <c r="P24">
-        <v>0.740605203717438</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7302381258371966</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.12067986408141</v>
+        <v>1.055857497787883</v>
       </c>
       <c r="C25">
-        <v>0.2418209502601627</v>
+        <v>0.2649628285873291</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.023089573373724</v>
+        <v>1.06432869829159</v>
       </c>
       <c r="F25">
-        <v>2.554253610535739</v>
+        <v>2.492426450390312</v>
       </c>
       <c r="G25">
-        <v>0.5339745805475928</v>
+        <v>0.4635035957352613</v>
       </c>
       <c r="H25">
-        <v>0.0006942932885327657</v>
+        <v>0.0007401097427304215</v>
       </c>
       <c r="I25">
-        <v>0.001081061985286347</v>
+        <v>0.001304687078022226</v>
       </c>
       <c r="J25">
-        <v>0.4124253422702253</v>
+        <v>0.4011575675465906</v>
       </c>
       <c r="K25">
-        <v>0.3568143887153354</v>
+        <v>0.3104808541242647</v>
       </c>
       <c r="L25">
-        <v>0.06577758342977447</v>
+        <v>0.1538655352924252</v>
       </c>
       <c r="M25">
-        <v>1.301319407792818</v>
+        <v>0.08650215392194838</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.06154591136737864</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.282011384585047</v>
       </c>
       <c r="P25">
-        <v>0.7995479720138885</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7808416028062819</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
